--- a/质检资料/经九路（k0+944~k1+635.162）下面层/标高放样单.xlsx
+++ b/质检资料/经九路（k0+944~k1+635.162）下面层/标高放样单.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4506"/>
   <workbookPr codeName="ThisWorkbook"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19395" windowHeight="8370"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19395" windowHeight="8370" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1 (2)" sheetId="2" r:id="rId1"/>
@@ -1687,6 +1687,36 @@
     <xf numFmtId="176" fontId="15" fillId="0" borderId="47" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="12" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="13" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="38" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="18" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="40" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="15" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="16" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="39" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="48" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="176" fontId="5" fillId="0" borderId="19" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1694,36 +1724,6 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="176" fontId="5" fillId="0" borderId="21" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="12" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="13" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="38" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="18" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="40" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="15" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="16" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="39" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="48" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="4" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
@@ -2534,7 +2534,7 @@
   <sheetPr codeName="Sheet2"/>
   <dimension ref="A1:AF150"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageBreakPreview" topLeftCell="A113" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
+    <sheetView view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
       <selection activeCell="O126" sqref="O126:Q126"/>
     </sheetView>
   </sheetViews>
@@ -2832,21 +2832,21 @@
     <row r="9" spans="1:32" ht="18" customHeight="1">
       <c r="A9" s="77"/>
       <c r="B9" s="48"/>
-      <c r="C9" s="21" t="s">
+      <c r="C9" s="18" t="s">
         <v>11</v>
       </c>
-      <c r="D9" s="22"/>
-      <c r="E9" s="22"/>
-      <c r="F9" s="22"/>
+      <c r="D9" s="19"/>
+      <c r="E9" s="19"/>
+      <c r="F9" s="19"/>
       <c r="G9" s="81"/>
-      <c r="H9" s="21" t="s">
+      <c r="H9" s="18" t="s">
         <v>27</v>
       </c>
-      <c r="I9" s="22"/>
-      <c r="J9" s="22"/>
-      <c r="K9" s="22"/>
-      <c r="L9" s="22"/>
-      <c r="M9" s="22"/>
+      <c r="I9" s="19"/>
+      <c r="J9" s="19"/>
+      <c r="K9" s="19"/>
+      <c r="L9" s="19"/>
+      <c r="M9" s="19"/>
       <c r="N9" s="81"/>
       <c r="O9" s="83" t="s">
         <v>12</v>
@@ -2874,17 +2874,17 @@
     <row r="10" spans="1:32" ht="6" customHeight="1">
       <c r="A10" s="77"/>
       <c r="B10" s="48"/>
-      <c r="C10" s="27"/>
-      <c r="D10" s="28"/>
-      <c r="E10" s="28"/>
-      <c r="F10" s="28"/>
+      <c r="C10" s="24"/>
+      <c r="D10" s="25"/>
+      <c r="E10" s="25"/>
+      <c r="F10" s="25"/>
       <c r="G10" s="82"/>
-      <c r="H10" s="27"/>
-      <c r="I10" s="28"/>
-      <c r="J10" s="28"/>
-      <c r="K10" s="28"/>
-      <c r="L10" s="28"/>
-      <c r="M10" s="28"/>
+      <c r="H10" s="24"/>
+      <c r="I10" s="25"/>
+      <c r="J10" s="25"/>
+      <c r="K10" s="25"/>
+      <c r="L10" s="25"/>
+      <c r="M10" s="25"/>
       <c r="N10" s="82"/>
       <c r="O10" s="86"/>
       <c r="P10" s="87"/>
@@ -2908,512 +2908,512 @@
     <row r="11" spans="1:32">
       <c r="A11" s="77"/>
       <c r="B11" s="48"/>
-      <c r="C11" s="21"/>
-      <c r="D11" s="22"/>
-      <c r="E11" s="22"/>
-      <c r="F11" s="22"/>
-      <c r="G11" s="22"/>
-      <c r="H11" s="22"/>
-      <c r="I11" s="22"/>
-      <c r="J11" s="22"/>
-      <c r="K11" s="22"/>
-      <c r="L11" s="22"/>
-      <c r="M11" s="22"/>
-      <c r="N11" s="22"/>
-      <c r="O11" s="22"/>
-      <c r="P11" s="22"/>
-      <c r="Q11" s="22"/>
-      <c r="R11" s="22"/>
-      <c r="S11" s="22"/>
-      <c r="T11" s="22"/>
-      <c r="U11" s="22"/>
-      <c r="V11" s="22"/>
-      <c r="W11" s="22"/>
-      <c r="X11" s="22"/>
-      <c r="Y11" s="22"/>
-      <c r="Z11" s="22"/>
-      <c r="AA11" s="22"/>
-      <c r="AB11" s="22"/>
-      <c r="AC11" s="22"/>
-      <c r="AD11" s="22"/>
-      <c r="AE11" s="22"/>
-      <c r="AF11" s="23"/>
+      <c r="C11" s="18"/>
+      <c r="D11" s="19"/>
+      <c r="E11" s="19"/>
+      <c r="F11" s="19"/>
+      <c r="G11" s="19"/>
+      <c r="H11" s="19"/>
+      <c r="I11" s="19"/>
+      <c r="J11" s="19"/>
+      <c r="K11" s="19"/>
+      <c r="L11" s="19"/>
+      <c r="M11" s="19"/>
+      <c r="N11" s="19"/>
+      <c r="O11" s="19"/>
+      <c r="P11" s="19"/>
+      <c r="Q11" s="19"/>
+      <c r="R11" s="19"/>
+      <c r="S11" s="19"/>
+      <c r="T11" s="19"/>
+      <c r="U11" s="19"/>
+      <c r="V11" s="19"/>
+      <c r="W11" s="19"/>
+      <c r="X11" s="19"/>
+      <c r="Y11" s="19"/>
+      <c r="Z11" s="19"/>
+      <c r="AA11" s="19"/>
+      <c r="AB11" s="19"/>
+      <c r="AC11" s="19"/>
+      <c r="AD11" s="19"/>
+      <c r="AE11" s="19"/>
+      <c r="AF11" s="20"/>
     </row>
     <row r="12" spans="1:32">
       <c r="A12" s="77"/>
       <c r="B12" s="48"/>
-      <c r="C12" s="24"/>
-      <c r="D12" s="25"/>
-      <c r="E12" s="25"/>
-      <c r="F12" s="25"/>
-      <c r="G12" s="25"/>
-      <c r="H12" s="25"/>
-      <c r="I12" s="25"/>
-      <c r="J12" s="25"/>
-      <c r="K12" s="25"/>
-      <c r="L12" s="25"/>
-      <c r="M12" s="25"/>
-      <c r="N12" s="25"/>
-      <c r="O12" s="25"/>
-      <c r="P12" s="25"/>
-      <c r="Q12" s="25"/>
-      <c r="R12" s="25"/>
-      <c r="S12" s="25"/>
-      <c r="T12" s="25"/>
-      <c r="U12" s="25"/>
-      <c r="V12" s="25"/>
-      <c r="W12" s="25"/>
-      <c r="X12" s="25"/>
-      <c r="Y12" s="25"/>
-      <c r="Z12" s="25"/>
-      <c r="AA12" s="25"/>
-      <c r="AB12" s="25"/>
-      <c r="AC12" s="25"/>
-      <c r="AD12" s="25"/>
-      <c r="AE12" s="25"/>
-      <c r="AF12" s="26"/>
+      <c r="C12" s="21"/>
+      <c r="D12" s="22"/>
+      <c r="E12" s="22"/>
+      <c r="F12" s="22"/>
+      <c r="G12" s="22"/>
+      <c r="H12" s="22"/>
+      <c r="I12" s="22"/>
+      <c r="J12" s="22"/>
+      <c r="K12" s="22"/>
+      <c r="L12" s="22"/>
+      <c r="M12" s="22"/>
+      <c r="N12" s="22"/>
+      <c r="O12" s="22"/>
+      <c r="P12" s="22"/>
+      <c r="Q12" s="22"/>
+      <c r="R12" s="22"/>
+      <c r="S12" s="22"/>
+      <c r="T12" s="22"/>
+      <c r="U12" s="22"/>
+      <c r="V12" s="22"/>
+      <c r="W12" s="22"/>
+      <c r="X12" s="22"/>
+      <c r="Y12" s="22"/>
+      <c r="Z12" s="22"/>
+      <c r="AA12" s="22"/>
+      <c r="AB12" s="22"/>
+      <c r="AC12" s="22"/>
+      <c r="AD12" s="22"/>
+      <c r="AE12" s="22"/>
+      <c r="AF12" s="23"/>
     </row>
     <row r="13" spans="1:32">
       <c r="A13" s="77"/>
       <c r="B13" s="48"/>
-      <c r="C13" s="24"/>
-      <c r="D13" s="25"/>
-      <c r="E13" s="25"/>
-      <c r="F13" s="25"/>
-      <c r="G13" s="25"/>
-      <c r="H13" s="25"/>
-      <c r="I13" s="25"/>
-      <c r="J13" s="25"/>
-      <c r="K13" s="25"/>
-      <c r="L13" s="25"/>
-      <c r="M13" s="25"/>
-      <c r="N13" s="25"/>
-      <c r="O13" s="25"/>
-      <c r="P13" s="25"/>
-      <c r="Q13" s="25"/>
-      <c r="R13" s="25"/>
-      <c r="S13" s="25"/>
-      <c r="T13" s="25"/>
-      <c r="U13" s="25"/>
-      <c r="V13" s="25"/>
-      <c r="W13" s="25"/>
-      <c r="X13" s="25"/>
-      <c r="Y13" s="25"/>
-      <c r="Z13" s="25"/>
-      <c r="AA13" s="25"/>
-      <c r="AB13" s="25"/>
-      <c r="AC13" s="25"/>
-      <c r="AD13" s="25"/>
-      <c r="AE13" s="25"/>
-      <c r="AF13" s="26"/>
+      <c r="C13" s="21"/>
+      <c r="D13" s="22"/>
+      <c r="E13" s="22"/>
+      <c r="F13" s="22"/>
+      <c r="G13" s="22"/>
+      <c r="H13" s="22"/>
+      <c r="I13" s="22"/>
+      <c r="J13" s="22"/>
+      <c r="K13" s="22"/>
+      <c r="L13" s="22"/>
+      <c r="M13" s="22"/>
+      <c r="N13" s="22"/>
+      <c r="O13" s="22"/>
+      <c r="P13" s="22"/>
+      <c r="Q13" s="22"/>
+      <c r="R13" s="22"/>
+      <c r="S13" s="22"/>
+      <c r="T13" s="22"/>
+      <c r="U13" s="22"/>
+      <c r="V13" s="22"/>
+      <c r="W13" s="22"/>
+      <c r="X13" s="22"/>
+      <c r="Y13" s="22"/>
+      <c r="Z13" s="22"/>
+      <c r="AA13" s="22"/>
+      <c r="AB13" s="22"/>
+      <c r="AC13" s="22"/>
+      <c r="AD13" s="22"/>
+      <c r="AE13" s="22"/>
+      <c r="AF13" s="23"/>
     </row>
     <row r="14" spans="1:32">
       <c r="A14" s="77"/>
       <c r="B14" s="48"/>
-      <c r="C14" s="24"/>
-      <c r="D14" s="25"/>
-      <c r="E14" s="25"/>
-      <c r="F14" s="25"/>
-      <c r="G14" s="25"/>
-      <c r="H14" s="25"/>
-      <c r="I14" s="25"/>
-      <c r="J14" s="25"/>
-      <c r="K14" s="25"/>
-      <c r="L14" s="25"/>
-      <c r="M14" s="25"/>
-      <c r="N14" s="25"/>
-      <c r="O14" s="25"/>
-      <c r="P14" s="25"/>
-      <c r="Q14" s="25"/>
-      <c r="R14" s="25"/>
-      <c r="S14" s="25"/>
-      <c r="T14" s="25"/>
-      <c r="U14" s="25"/>
-      <c r="V14" s="25"/>
-      <c r="W14" s="25"/>
-      <c r="X14" s="25"/>
-      <c r="Y14" s="25"/>
-      <c r="Z14" s="25"/>
-      <c r="AA14" s="25"/>
-      <c r="AB14" s="25"/>
-      <c r="AC14" s="25"/>
-      <c r="AD14" s="25"/>
-      <c r="AE14" s="25"/>
-      <c r="AF14" s="26"/>
+      <c r="C14" s="21"/>
+      <c r="D14" s="22"/>
+      <c r="E14" s="22"/>
+      <c r="F14" s="22"/>
+      <c r="G14" s="22"/>
+      <c r="H14" s="22"/>
+      <c r="I14" s="22"/>
+      <c r="J14" s="22"/>
+      <c r="K14" s="22"/>
+      <c r="L14" s="22"/>
+      <c r="M14" s="22"/>
+      <c r="N14" s="22"/>
+      <c r="O14" s="22"/>
+      <c r="P14" s="22"/>
+      <c r="Q14" s="22"/>
+      <c r="R14" s="22"/>
+      <c r="S14" s="22"/>
+      <c r="T14" s="22"/>
+      <c r="U14" s="22"/>
+      <c r="V14" s="22"/>
+      <c r="W14" s="22"/>
+      <c r="X14" s="22"/>
+      <c r="Y14" s="22"/>
+      <c r="Z14" s="22"/>
+      <c r="AA14" s="22"/>
+      <c r="AB14" s="22"/>
+      <c r="AC14" s="22"/>
+      <c r="AD14" s="22"/>
+      <c r="AE14" s="22"/>
+      <c r="AF14" s="23"/>
     </row>
     <row r="15" spans="1:32">
       <c r="A15" s="77"/>
       <c r="B15" s="48"/>
-      <c r="C15" s="24"/>
-      <c r="D15" s="25"/>
-      <c r="E15" s="25"/>
-      <c r="F15" s="25"/>
-      <c r="G15" s="25"/>
-      <c r="H15" s="25"/>
-      <c r="I15" s="25"/>
-      <c r="J15" s="25"/>
-      <c r="K15" s="25"/>
-      <c r="L15" s="25"/>
-      <c r="M15" s="25"/>
-      <c r="N15" s="25"/>
-      <c r="O15" s="25"/>
-      <c r="P15" s="25"/>
-      <c r="Q15" s="25"/>
-      <c r="R15" s="25"/>
-      <c r="S15" s="25"/>
-      <c r="T15" s="25"/>
-      <c r="U15" s="25"/>
-      <c r="V15" s="25"/>
-      <c r="W15" s="25"/>
-      <c r="X15" s="25"/>
-      <c r="Y15" s="25"/>
-      <c r="Z15" s="25"/>
-      <c r="AA15" s="25"/>
-      <c r="AB15" s="25"/>
-      <c r="AC15" s="25"/>
-      <c r="AD15" s="25"/>
-      <c r="AE15" s="25"/>
-      <c r="AF15" s="26"/>
+      <c r="C15" s="21"/>
+      <c r="D15" s="22"/>
+      <c r="E15" s="22"/>
+      <c r="F15" s="22"/>
+      <c r="G15" s="22"/>
+      <c r="H15" s="22"/>
+      <c r="I15" s="22"/>
+      <c r="J15" s="22"/>
+      <c r="K15" s="22"/>
+      <c r="L15" s="22"/>
+      <c r="M15" s="22"/>
+      <c r="N15" s="22"/>
+      <c r="O15" s="22"/>
+      <c r="P15" s="22"/>
+      <c r="Q15" s="22"/>
+      <c r="R15" s="22"/>
+      <c r="S15" s="22"/>
+      <c r="T15" s="22"/>
+      <c r="U15" s="22"/>
+      <c r="V15" s="22"/>
+      <c r="W15" s="22"/>
+      <c r="X15" s="22"/>
+      <c r="Y15" s="22"/>
+      <c r="Z15" s="22"/>
+      <c r="AA15" s="22"/>
+      <c r="AB15" s="22"/>
+      <c r="AC15" s="22"/>
+      <c r="AD15" s="22"/>
+      <c r="AE15" s="22"/>
+      <c r="AF15" s="23"/>
     </row>
     <row r="16" spans="1:32">
       <c r="A16" s="77"/>
       <c r="B16" s="48"/>
-      <c r="C16" s="24"/>
-      <c r="D16" s="25"/>
-      <c r="E16" s="25"/>
-      <c r="F16" s="25"/>
-      <c r="G16" s="25"/>
-      <c r="H16" s="25"/>
-      <c r="I16" s="25"/>
-      <c r="J16" s="25"/>
-      <c r="K16" s="25"/>
-      <c r="L16" s="25"/>
-      <c r="M16" s="25"/>
-      <c r="N16" s="25"/>
-      <c r="O16" s="25"/>
-      <c r="P16" s="25"/>
-      <c r="Q16" s="25"/>
-      <c r="R16" s="25"/>
-      <c r="S16" s="25"/>
-      <c r="T16" s="25"/>
-      <c r="U16" s="25"/>
-      <c r="V16" s="25"/>
-      <c r="W16" s="25"/>
-      <c r="X16" s="25"/>
-      <c r="Y16" s="25"/>
-      <c r="Z16" s="25"/>
-      <c r="AA16" s="25"/>
-      <c r="AB16" s="25"/>
-      <c r="AC16" s="25"/>
-      <c r="AD16" s="25"/>
-      <c r="AE16" s="25"/>
-      <c r="AF16" s="26"/>
+      <c r="C16" s="21"/>
+      <c r="D16" s="22"/>
+      <c r="E16" s="22"/>
+      <c r="F16" s="22"/>
+      <c r="G16" s="22"/>
+      <c r="H16" s="22"/>
+      <c r="I16" s="22"/>
+      <c r="J16" s="22"/>
+      <c r="K16" s="22"/>
+      <c r="L16" s="22"/>
+      <c r="M16" s="22"/>
+      <c r="N16" s="22"/>
+      <c r="O16" s="22"/>
+      <c r="P16" s="22"/>
+      <c r="Q16" s="22"/>
+      <c r="R16" s="22"/>
+      <c r="S16" s="22"/>
+      <c r="T16" s="22"/>
+      <c r="U16" s="22"/>
+      <c r="V16" s="22"/>
+      <c r="W16" s="22"/>
+      <c r="X16" s="22"/>
+      <c r="Y16" s="22"/>
+      <c r="Z16" s="22"/>
+      <c r="AA16" s="22"/>
+      <c r="AB16" s="22"/>
+      <c r="AC16" s="22"/>
+      <c r="AD16" s="22"/>
+      <c r="AE16" s="22"/>
+      <c r="AF16" s="23"/>
     </row>
     <row r="17" spans="1:32">
       <c r="A17" s="77"/>
       <c r="B17" s="48"/>
-      <c r="C17" s="24"/>
-      <c r="D17" s="25"/>
-      <c r="E17" s="25"/>
-      <c r="F17" s="25"/>
-      <c r="G17" s="25"/>
-      <c r="H17" s="25"/>
-      <c r="I17" s="25"/>
-      <c r="J17" s="25"/>
-      <c r="K17" s="25"/>
-      <c r="L17" s="25"/>
-      <c r="M17" s="25"/>
-      <c r="N17" s="25"/>
-      <c r="O17" s="25"/>
-      <c r="P17" s="25"/>
-      <c r="Q17" s="25"/>
-      <c r="R17" s="25"/>
-      <c r="S17" s="25"/>
-      <c r="T17" s="25"/>
-      <c r="U17" s="25"/>
-      <c r="V17" s="25"/>
-      <c r="W17" s="25"/>
-      <c r="X17" s="25"/>
-      <c r="Y17" s="25"/>
-      <c r="Z17" s="25"/>
-      <c r="AA17" s="25"/>
-      <c r="AB17" s="25"/>
-      <c r="AC17" s="25"/>
-      <c r="AD17" s="25"/>
-      <c r="AE17" s="25"/>
-      <c r="AF17" s="26"/>
+      <c r="C17" s="21"/>
+      <c r="D17" s="22"/>
+      <c r="E17" s="22"/>
+      <c r="F17" s="22"/>
+      <c r="G17" s="22"/>
+      <c r="H17" s="22"/>
+      <c r="I17" s="22"/>
+      <c r="J17" s="22"/>
+      <c r="K17" s="22"/>
+      <c r="L17" s="22"/>
+      <c r="M17" s="22"/>
+      <c r="N17" s="22"/>
+      <c r="O17" s="22"/>
+      <c r="P17" s="22"/>
+      <c r="Q17" s="22"/>
+      <c r="R17" s="22"/>
+      <c r="S17" s="22"/>
+      <c r="T17" s="22"/>
+      <c r="U17" s="22"/>
+      <c r="V17" s="22"/>
+      <c r="W17" s="22"/>
+      <c r="X17" s="22"/>
+      <c r="Y17" s="22"/>
+      <c r="Z17" s="22"/>
+      <c r="AA17" s="22"/>
+      <c r="AB17" s="22"/>
+      <c r="AC17" s="22"/>
+      <c r="AD17" s="22"/>
+      <c r="AE17" s="22"/>
+      <c r="AF17" s="23"/>
     </row>
     <row r="18" spans="1:32">
       <c r="A18" s="77"/>
       <c r="B18" s="48"/>
-      <c r="C18" s="24"/>
-      <c r="D18" s="25"/>
-      <c r="E18" s="25"/>
-      <c r="F18" s="25"/>
-      <c r="G18" s="25"/>
-      <c r="H18" s="25"/>
-      <c r="I18" s="25"/>
-      <c r="J18" s="25"/>
-      <c r="K18" s="25"/>
-      <c r="L18" s="25"/>
-      <c r="M18" s="25"/>
-      <c r="N18" s="25"/>
-      <c r="O18" s="25"/>
-      <c r="P18" s="25"/>
-      <c r="Q18" s="25"/>
-      <c r="R18" s="25"/>
-      <c r="S18" s="25"/>
-      <c r="T18" s="25"/>
-      <c r="U18" s="25"/>
-      <c r="V18" s="25"/>
-      <c r="W18" s="25"/>
-      <c r="X18" s="25"/>
-      <c r="Y18" s="25"/>
-      <c r="Z18" s="25"/>
-      <c r="AA18" s="25"/>
-      <c r="AB18" s="25"/>
-      <c r="AC18" s="25"/>
-      <c r="AD18" s="25"/>
-      <c r="AE18" s="25"/>
-      <c r="AF18" s="26"/>
+      <c r="C18" s="21"/>
+      <c r="D18" s="22"/>
+      <c r="E18" s="22"/>
+      <c r="F18" s="22"/>
+      <c r="G18" s="22"/>
+      <c r="H18" s="22"/>
+      <c r="I18" s="22"/>
+      <c r="J18" s="22"/>
+      <c r="K18" s="22"/>
+      <c r="L18" s="22"/>
+      <c r="M18" s="22"/>
+      <c r="N18" s="22"/>
+      <c r="O18" s="22"/>
+      <c r="P18" s="22"/>
+      <c r="Q18" s="22"/>
+      <c r="R18" s="22"/>
+      <c r="S18" s="22"/>
+      <c r="T18" s="22"/>
+      <c r="U18" s="22"/>
+      <c r="V18" s="22"/>
+      <c r="W18" s="22"/>
+      <c r="X18" s="22"/>
+      <c r="Y18" s="22"/>
+      <c r="Z18" s="22"/>
+      <c r="AA18" s="22"/>
+      <c r="AB18" s="22"/>
+      <c r="AC18" s="22"/>
+      <c r="AD18" s="22"/>
+      <c r="AE18" s="22"/>
+      <c r="AF18" s="23"/>
     </row>
     <row r="19" spans="1:32" ht="8.25" customHeight="1">
       <c r="A19" s="77"/>
       <c r="B19" s="48"/>
-      <c r="C19" s="24"/>
-      <c r="D19" s="25"/>
-      <c r="E19" s="25"/>
-      <c r="F19" s="25"/>
-      <c r="G19" s="25"/>
-      <c r="H19" s="25"/>
-      <c r="I19" s="25"/>
-      <c r="J19" s="25"/>
-      <c r="K19" s="25"/>
-      <c r="L19" s="25"/>
-      <c r="M19" s="25"/>
-      <c r="N19" s="25"/>
-      <c r="O19" s="25"/>
-      <c r="P19" s="25"/>
-      <c r="Q19" s="25"/>
-      <c r="R19" s="25"/>
-      <c r="S19" s="25"/>
-      <c r="T19" s="25"/>
-      <c r="U19" s="25"/>
-      <c r="V19" s="25"/>
-      <c r="W19" s="25"/>
-      <c r="X19" s="25"/>
-      <c r="Y19" s="25"/>
-      <c r="Z19" s="25"/>
-      <c r="AA19" s="25"/>
-      <c r="AB19" s="25"/>
-      <c r="AC19" s="25"/>
-      <c r="AD19" s="25"/>
-      <c r="AE19" s="25"/>
-      <c r="AF19" s="26"/>
+      <c r="C19" s="21"/>
+      <c r="D19" s="22"/>
+      <c r="E19" s="22"/>
+      <c r="F19" s="22"/>
+      <c r="G19" s="22"/>
+      <c r="H19" s="22"/>
+      <c r="I19" s="22"/>
+      <c r="J19" s="22"/>
+      <c r="K19" s="22"/>
+      <c r="L19" s="22"/>
+      <c r="M19" s="22"/>
+      <c r="N19" s="22"/>
+      <c r="O19" s="22"/>
+      <c r="P19" s="22"/>
+      <c r="Q19" s="22"/>
+      <c r="R19" s="22"/>
+      <c r="S19" s="22"/>
+      <c r="T19" s="22"/>
+      <c r="U19" s="22"/>
+      <c r="V19" s="22"/>
+      <c r="W19" s="22"/>
+      <c r="X19" s="22"/>
+      <c r="Y19" s="22"/>
+      <c r="Z19" s="22"/>
+      <c r="AA19" s="22"/>
+      <c r="AB19" s="22"/>
+      <c r="AC19" s="22"/>
+      <c r="AD19" s="22"/>
+      <c r="AE19" s="22"/>
+      <c r="AF19" s="23"/>
     </row>
     <row r="20" spans="1:32" ht="8.25" customHeight="1">
       <c r="A20" s="77"/>
       <c r="B20" s="48"/>
-      <c r="C20" s="24"/>
-      <c r="D20" s="25"/>
-      <c r="E20" s="25"/>
-      <c r="F20" s="25"/>
-      <c r="G20" s="25"/>
-      <c r="H20" s="25"/>
-      <c r="I20" s="25"/>
-      <c r="J20" s="25"/>
-      <c r="K20" s="25"/>
-      <c r="L20" s="25"/>
-      <c r="M20" s="25"/>
-      <c r="N20" s="25"/>
-      <c r="O20" s="25"/>
-      <c r="P20" s="25"/>
-      <c r="Q20" s="25"/>
-      <c r="R20" s="25"/>
-      <c r="S20" s="25"/>
-      <c r="T20" s="25"/>
-      <c r="U20" s="25"/>
-      <c r="V20" s="25"/>
-      <c r="W20" s="25"/>
-      <c r="X20" s="25"/>
-      <c r="Y20" s="25"/>
-      <c r="Z20" s="25"/>
-      <c r="AA20" s="25"/>
-      <c r="AB20" s="25"/>
-      <c r="AC20" s="25"/>
-      <c r="AD20" s="25"/>
-      <c r="AE20" s="25"/>
-      <c r="AF20" s="26"/>
+      <c r="C20" s="21"/>
+      <c r="D20" s="22"/>
+      <c r="E20" s="22"/>
+      <c r="F20" s="22"/>
+      <c r="G20" s="22"/>
+      <c r="H20" s="22"/>
+      <c r="I20" s="22"/>
+      <c r="J20" s="22"/>
+      <c r="K20" s="22"/>
+      <c r="L20" s="22"/>
+      <c r="M20" s="22"/>
+      <c r="N20" s="22"/>
+      <c r="O20" s="22"/>
+      <c r="P20" s="22"/>
+      <c r="Q20" s="22"/>
+      <c r="R20" s="22"/>
+      <c r="S20" s="22"/>
+      <c r="T20" s="22"/>
+      <c r="U20" s="22"/>
+      <c r="V20" s="22"/>
+      <c r="W20" s="22"/>
+      <c r="X20" s="22"/>
+      <c r="Y20" s="22"/>
+      <c r="Z20" s="22"/>
+      <c r="AA20" s="22"/>
+      <c r="AB20" s="22"/>
+      <c r="AC20" s="22"/>
+      <c r="AD20" s="22"/>
+      <c r="AE20" s="22"/>
+      <c r="AF20" s="23"/>
     </row>
     <row r="21" spans="1:32" ht="8.25" customHeight="1">
       <c r="A21" s="77"/>
       <c r="B21" s="48"/>
-      <c r="C21" s="24"/>
-      <c r="D21" s="25"/>
-      <c r="E21" s="25"/>
-      <c r="F21" s="25"/>
-      <c r="G21" s="25"/>
-      <c r="H21" s="25"/>
-      <c r="I21" s="25"/>
-      <c r="J21" s="25"/>
-      <c r="K21" s="25"/>
-      <c r="L21" s="25"/>
-      <c r="M21" s="25"/>
-      <c r="N21" s="25"/>
-      <c r="O21" s="25"/>
-      <c r="P21" s="25"/>
-      <c r="Q21" s="25"/>
-      <c r="R21" s="25"/>
-      <c r="S21" s="25"/>
-      <c r="T21" s="25"/>
-      <c r="U21" s="25"/>
-      <c r="V21" s="25"/>
-      <c r="W21" s="25"/>
-      <c r="X21" s="25"/>
-      <c r="Y21" s="25"/>
-      <c r="Z21" s="25"/>
-      <c r="AA21" s="25"/>
-      <c r="AB21" s="25"/>
-      <c r="AC21" s="25"/>
-      <c r="AD21" s="25"/>
-      <c r="AE21" s="25"/>
-      <c r="AF21" s="26"/>
+      <c r="C21" s="21"/>
+      <c r="D21" s="22"/>
+      <c r="E21" s="22"/>
+      <c r="F21" s="22"/>
+      <c r="G21" s="22"/>
+      <c r="H21" s="22"/>
+      <c r="I21" s="22"/>
+      <c r="J21" s="22"/>
+      <c r="K21" s="22"/>
+      <c r="L21" s="22"/>
+      <c r="M21" s="22"/>
+      <c r="N21" s="22"/>
+      <c r="O21" s="22"/>
+      <c r="P21" s="22"/>
+      <c r="Q21" s="22"/>
+      <c r="R21" s="22"/>
+      <c r="S21" s="22"/>
+      <c r="T21" s="22"/>
+      <c r="U21" s="22"/>
+      <c r="V21" s="22"/>
+      <c r="W21" s="22"/>
+      <c r="X21" s="22"/>
+      <c r="Y21" s="22"/>
+      <c r="Z21" s="22"/>
+      <c r="AA21" s="22"/>
+      <c r="AB21" s="22"/>
+      <c r="AC21" s="22"/>
+      <c r="AD21" s="22"/>
+      <c r="AE21" s="22"/>
+      <c r="AF21" s="23"/>
     </row>
     <row r="22" spans="1:32" ht="8.25" customHeight="1">
       <c r="A22" s="77"/>
       <c r="B22" s="48"/>
-      <c r="C22" s="24"/>
-      <c r="D22" s="25"/>
-      <c r="E22" s="25"/>
-      <c r="F22" s="25"/>
-      <c r="G22" s="25"/>
-      <c r="H22" s="25"/>
-      <c r="I22" s="25"/>
-      <c r="J22" s="25"/>
-      <c r="K22" s="25"/>
-      <c r="L22" s="25"/>
-      <c r="M22" s="25"/>
-      <c r="N22" s="25"/>
-      <c r="O22" s="25"/>
-      <c r="P22" s="25"/>
-      <c r="Q22" s="25"/>
-      <c r="R22" s="25"/>
-      <c r="S22" s="25"/>
-      <c r="T22" s="25"/>
-      <c r="U22" s="25"/>
-      <c r="V22" s="25"/>
-      <c r="W22" s="25"/>
-      <c r="X22" s="25"/>
-      <c r="Y22" s="25"/>
-      <c r="Z22" s="25"/>
-      <c r="AA22" s="25"/>
-      <c r="AB22" s="25"/>
-      <c r="AC22" s="25"/>
-      <c r="AD22" s="25"/>
-      <c r="AE22" s="25"/>
-      <c r="AF22" s="26"/>
+      <c r="C22" s="21"/>
+      <c r="D22" s="22"/>
+      <c r="E22" s="22"/>
+      <c r="F22" s="22"/>
+      <c r="G22" s="22"/>
+      <c r="H22" s="22"/>
+      <c r="I22" s="22"/>
+      <c r="J22" s="22"/>
+      <c r="K22" s="22"/>
+      <c r="L22" s="22"/>
+      <c r="M22" s="22"/>
+      <c r="N22" s="22"/>
+      <c r="O22" s="22"/>
+      <c r="P22" s="22"/>
+      <c r="Q22" s="22"/>
+      <c r="R22" s="22"/>
+      <c r="S22" s="22"/>
+      <c r="T22" s="22"/>
+      <c r="U22" s="22"/>
+      <c r="V22" s="22"/>
+      <c r="W22" s="22"/>
+      <c r="X22" s="22"/>
+      <c r="Y22" s="22"/>
+      <c r="Z22" s="22"/>
+      <c r="AA22" s="22"/>
+      <c r="AB22" s="22"/>
+      <c r="AC22" s="22"/>
+      <c r="AD22" s="22"/>
+      <c r="AE22" s="22"/>
+      <c r="AF22" s="23"/>
     </row>
     <row r="23" spans="1:32" ht="8.25" customHeight="1">
       <c r="A23" s="77"/>
       <c r="B23" s="48"/>
-      <c r="C23" s="24"/>
-      <c r="D23" s="25"/>
-      <c r="E23" s="25"/>
-      <c r="F23" s="25"/>
-      <c r="G23" s="25"/>
-      <c r="H23" s="25"/>
-      <c r="I23" s="25"/>
-      <c r="J23" s="25"/>
-      <c r="K23" s="25"/>
-      <c r="L23" s="25"/>
-      <c r="M23" s="25"/>
-      <c r="N23" s="25"/>
-      <c r="O23" s="25"/>
-      <c r="P23" s="25"/>
-      <c r="Q23" s="25"/>
-      <c r="R23" s="25"/>
-      <c r="S23" s="25"/>
-      <c r="T23" s="25"/>
-      <c r="U23" s="25"/>
-      <c r="V23" s="25"/>
-      <c r="W23" s="25"/>
-      <c r="X23" s="25"/>
-      <c r="Y23" s="25"/>
-      <c r="Z23" s="25"/>
-      <c r="AA23" s="25"/>
-      <c r="AB23" s="25"/>
-      <c r="AC23" s="25"/>
-      <c r="AD23" s="25"/>
-      <c r="AE23" s="25"/>
-      <c r="AF23" s="26"/>
+      <c r="C23" s="21"/>
+      <c r="D23" s="22"/>
+      <c r="E23" s="22"/>
+      <c r="F23" s="22"/>
+      <c r="G23" s="22"/>
+      <c r="H23" s="22"/>
+      <c r="I23" s="22"/>
+      <c r="J23" s="22"/>
+      <c r="K23" s="22"/>
+      <c r="L23" s="22"/>
+      <c r="M23" s="22"/>
+      <c r="N23" s="22"/>
+      <c r="O23" s="22"/>
+      <c r="P23" s="22"/>
+      <c r="Q23" s="22"/>
+      <c r="R23" s="22"/>
+      <c r="S23" s="22"/>
+      <c r="T23" s="22"/>
+      <c r="U23" s="22"/>
+      <c r="V23" s="22"/>
+      <c r="W23" s="22"/>
+      <c r="X23" s="22"/>
+      <c r="Y23" s="22"/>
+      <c r="Z23" s="22"/>
+      <c r="AA23" s="22"/>
+      <c r="AB23" s="22"/>
+      <c r="AC23" s="22"/>
+      <c r="AD23" s="22"/>
+      <c r="AE23" s="22"/>
+      <c r="AF23" s="23"/>
     </row>
     <row r="24" spans="1:32" ht="17.25" customHeight="1">
       <c r="A24" s="77"/>
       <c r="B24" s="48"/>
-      <c r="C24" s="24"/>
-      <c r="D24" s="25"/>
-      <c r="E24" s="25"/>
-      <c r="F24" s="25"/>
-      <c r="G24" s="25"/>
-      <c r="H24" s="25"/>
-      <c r="I24" s="25"/>
-      <c r="J24" s="25"/>
-      <c r="K24" s="25"/>
-      <c r="L24" s="25"/>
-      <c r="M24" s="25"/>
-      <c r="N24" s="25"/>
-      <c r="O24" s="25"/>
-      <c r="P24" s="25"/>
-      <c r="Q24" s="25"/>
-      <c r="R24" s="25"/>
-      <c r="S24" s="25"/>
-      <c r="T24" s="25"/>
-      <c r="U24" s="25"/>
-      <c r="V24" s="25"/>
-      <c r="W24" s="25"/>
-      <c r="X24" s="25"/>
-      <c r="Y24" s="25"/>
-      <c r="Z24" s="25"/>
-      <c r="AA24" s="25"/>
-      <c r="AB24" s="25"/>
-      <c r="AC24" s="25"/>
-      <c r="AD24" s="25"/>
-      <c r="AE24" s="25"/>
-      <c r="AF24" s="26"/>
+      <c r="C24" s="21"/>
+      <c r="D24" s="22"/>
+      <c r="E24" s="22"/>
+      <c r="F24" s="22"/>
+      <c r="G24" s="22"/>
+      <c r="H24" s="22"/>
+      <c r="I24" s="22"/>
+      <c r="J24" s="22"/>
+      <c r="K24" s="22"/>
+      <c r="L24" s="22"/>
+      <c r="M24" s="22"/>
+      <c r="N24" s="22"/>
+      <c r="O24" s="22"/>
+      <c r="P24" s="22"/>
+      <c r="Q24" s="22"/>
+      <c r="R24" s="22"/>
+      <c r="S24" s="22"/>
+      <c r="T24" s="22"/>
+      <c r="U24" s="22"/>
+      <c r="V24" s="22"/>
+      <c r="W24" s="22"/>
+      <c r="X24" s="22"/>
+      <c r="Y24" s="22"/>
+      <c r="Z24" s="22"/>
+      <c r="AA24" s="22"/>
+      <c r="AB24" s="22"/>
+      <c r="AC24" s="22"/>
+      <c r="AD24" s="22"/>
+      <c r="AE24" s="22"/>
+      <c r="AF24" s="23"/>
     </row>
     <row r="25" spans="1:32" ht="18" customHeight="1">
       <c r="A25" s="77"/>
       <c r="B25" s="48"/>
-      <c r="C25" s="27"/>
-      <c r="D25" s="28"/>
-      <c r="E25" s="28"/>
-      <c r="F25" s="28"/>
-      <c r="G25" s="28"/>
-      <c r="H25" s="28"/>
-      <c r="I25" s="28"/>
-      <c r="J25" s="28"/>
-      <c r="K25" s="28"/>
-      <c r="L25" s="28"/>
-      <c r="M25" s="28"/>
-      <c r="N25" s="28"/>
-      <c r="O25" s="28"/>
-      <c r="P25" s="28"/>
-      <c r="Q25" s="28"/>
-      <c r="R25" s="28"/>
-      <c r="S25" s="28"/>
-      <c r="T25" s="28"/>
-      <c r="U25" s="28"/>
-      <c r="V25" s="28"/>
-      <c r="W25" s="28"/>
-      <c r="X25" s="28"/>
-      <c r="Y25" s="28"/>
-      <c r="Z25" s="28"/>
-      <c r="AA25" s="28"/>
-      <c r="AB25" s="28"/>
-      <c r="AC25" s="28"/>
-      <c r="AD25" s="28"/>
-      <c r="AE25" s="28"/>
-      <c r="AF25" s="29"/>
+      <c r="C25" s="24"/>
+      <c r="D25" s="25"/>
+      <c r="E25" s="25"/>
+      <c r="F25" s="25"/>
+      <c r="G25" s="25"/>
+      <c r="H25" s="25"/>
+      <c r="I25" s="25"/>
+      <c r="J25" s="25"/>
+      <c r="K25" s="25"/>
+      <c r="L25" s="25"/>
+      <c r="M25" s="25"/>
+      <c r="N25" s="25"/>
+      <c r="O25" s="25"/>
+      <c r="P25" s="25"/>
+      <c r="Q25" s="25"/>
+      <c r="R25" s="25"/>
+      <c r="S25" s="25"/>
+      <c r="T25" s="25"/>
+      <c r="U25" s="25"/>
+      <c r="V25" s="25"/>
+      <c r="W25" s="25"/>
+      <c r="X25" s="25"/>
+      <c r="Y25" s="25"/>
+      <c r="Z25" s="25"/>
+      <c r="AA25" s="25"/>
+      <c r="AB25" s="25"/>
+      <c r="AC25" s="25"/>
+      <c r="AD25" s="25"/>
+      <c r="AE25" s="25"/>
+      <c r="AF25" s="26"/>
     </row>
     <row r="26" spans="1:32" ht="17.100000000000001" customHeight="1">
       <c r="A26" s="77"/>
@@ -3463,7 +3463,7 @@
       <c r="AC26" s="13"/>
       <c r="AD26" s="11"/>
       <c r="AE26" s="12"/>
-      <c r="AF26" s="30"/>
+      <c r="AF26" s="27"/>
     </row>
     <row r="27" spans="1:32" ht="17.100000000000001" customHeight="1">
       <c r="A27" s="77"/>
@@ -3482,49 +3482,49 @@
       <c r="H27" s="14"/>
       <c r="I27" s="14">
         <f ca="1">R27-(17.5*2%)+RANDBETWEEN(-2,2)*0.001</f>
-        <v>3.8820000000000001</v>
+        <v>3.94</v>
       </c>
       <c r="J27" s="14"/>
       <c r="K27" s="14"/>
       <c r="L27" s="14">
         <f ca="1">R27-(13*2%)+RANDBETWEEN(-2,2)*0.001</f>
-        <v>3.9680000000000009</v>
+        <v>4.0280000000000005</v>
       </c>
       <c r="M27" s="14"/>
       <c r="N27" s="14"/>
       <c r="O27" s="14">
         <f ca="1">R27-(11.5*2%)+RANDBETWEEN(-2,2)*0.001</f>
-        <v>4.0019999999999998</v>
+        <v>4.0579999999999998</v>
       </c>
       <c r="P27" s="14"/>
       <c r="Q27" s="14"/>
       <c r="R27" s="15">
         <f ca="1">Sheet2!E1</f>
-        <v>4.2300000000000004</v>
+        <v>4.2880000000000003</v>
       </c>
       <c r="S27" s="16"/>
       <c r="T27" s="17"/>
       <c r="U27" s="14">
         <f ca="1">R27-(11*2%)+RANDBETWEEN(-2,2)*0.001</f>
-        <v>4.0090000000000003</v>
+        <v>4.0690000000000008</v>
       </c>
       <c r="V27" s="14"/>
       <c r="W27" s="14"/>
       <c r="X27" s="14">
         <f ca="1">R27-(13*2%)+RANDBETWEEN(-2,2)*0.001</f>
-        <v>3.9700000000000006</v>
+        <v>4.0260000000000007</v>
       </c>
       <c r="Y27" s="14"/>
       <c r="Z27" s="14"/>
       <c r="AA27" s="14">
         <f ca="1">R27-(17.5*2%)+RANDBETWEEN(-2,2)*0.001</f>
-        <v>3.8780000000000006</v>
+        <v>3.94</v>
       </c>
       <c r="AB27" s="14"/>
       <c r="AC27" s="14"/>
       <c r="AD27" s="11"/>
       <c r="AE27" s="12"/>
-      <c r="AF27" s="30"/>
+      <c r="AF27" s="27"/>
     </row>
     <row r="28" spans="1:32" ht="17.100000000000001" customHeight="1">
       <c r="A28" s="77"/>
@@ -3542,50 +3542,50 @@
       <c r="G28" s="14"/>
       <c r="H28" s="14"/>
       <c r="I28" s="14">
-        <f t="shared" ref="I28:I33" ca="1" si="0">R28-(17.5*2%)+RANDBETWEEN(-2,2)*0.001</f>
-        <v>3.789000000000001</v>
+        <f t="shared" ref="I28:I29" ca="1" si="0">R28-(17.5*2%)+RANDBETWEEN(-2,2)*0.001</f>
+        <v>3.8530000000000006</v>
       </c>
       <c r="J28" s="14"/>
       <c r="K28" s="14"/>
       <c r="L28" s="14">
-        <f t="shared" ref="L28:L33" ca="1" si="1">R28-(13*2%)+RANDBETWEEN(-2,2)*0.001</f>
-        <v>3.8780000000000014</v>
+        <f t="shared" ref="L28:L29" ca="1" si="1">R28-(13*2%)+RANDBETWEEN(-2,2)*0.001</f>
+        <v>3.9430000000000009</v>
       </c>
       <c r="M28" s="14"/>
       <c r="N28" s="14"/>
       <c r="O28" s="14">
-        <f t="shared" ref="O28:O33" ca="1" si="2">R28-(11.5*2%)+RANDBETWEEN(-2,2)*0.001</f>
-        <v>3.9080000000000013</v>
+        <f t="shared" ref="O28:O29" ca="1" si="2">R28-(11.5*2%)+RANDBETWEEN(-2,2)*0.001</f>
+        <v>3.9740000000000006</v>
       </c>
       <c r="P28" s="14"/>
       <c r="Q28" s="14"/>
       <c r="R28" s="15">
         <f ca="1">Sheet2!E2</f>
-        <v>4.1390000000000011</v>
+        <v>4.2040000000000006</v>
       </c>
       <c r="S28" s="16"/>
       <c r="T28" s="17"/>
       <c r="U28" s="14">
-        <f t="shared" ref="U28:U33" ca="1" si="3">R28-(11*2%)+RANDBETWEEN(-2,2)*0.001</f>
-        <v>3.9190000000000009</v>
+        <f t="shared" ref="U28:U29" ca="1" si="3">R28-(11*2%)+RANDBETWEEN(-2,2)*0.001</f>
+        <v>3.9820000000000007</v>
       </c>
       <c r="V28" s="14"/>
       <c r="W28" s="14"/>
       <c r="X28" s="14">
-        <f t="shared" ref="X28:X33" ca="1" si="4">R28-(13*2%)+RANDBETWEEN(-2,2)*0.001</f>
-        <v>3.8790000000000013</v>
+        <f t="shared" ref="X28:X29" ca="1" si="4">R28-(13*2%)+RANDBETWEEN(-2,2)*0.001</f>
+        <v>3.9440000000000008</v>
       </c>
       <c r="Y28" s="14"/>
       <c r="Z28" s="14"/>
       <c r="AA28" s="14">
-        <f t="shared" ref="AA28:AA33" ca="1" si="5">R28-(17.5*2%)+RANDBETWEEN(-2,2)*0.001</f>
-        <v>3.7910000000000008</v>
+        <f t="shared" ref="AA28:AA29" ca="1" si="5">R28-(17.5*2%)+RANDBETWEEN(-2,2)*0.001</f>
+        <v>3.8550000000000004</v>
       </c>
       <c r="AB28" s="14"/>
       <c r="AC28" s="14"/>
       <c r="AD28" s="11"/>
       <c r="AE28" s="12"/>
-      <c r="AF28" s="30"/>
+      <c r="AF28" s="27"/>
     </row>
     <row r="29" spans="1:32" ht="17.100000000000001" customHeight="1">
       <c r="A29" s="77"/>
@@ -3604,49 +3604,49 @@
       <c r="H29" s="13"/>
       <c r="I29" s="14">
         <f t="shared" ca="1" si="0"/>
-        <v>3.7020000000000004</v>
+        <v>3.7640000000000002</v>
       </c>
       <c r="J29" s="14"/>
       <c r="K29" s="14"/>
       <c r="L29" s="14">
         <f t="shared" ca="1" si="1"/>
-        <v>3.7920000000000007</v>
+        <v>3.8530000000000006</v>
       </c>
       <c r="M29" s="14"/>
       <c r="N29" s="14"/>
       <c r="O29" s="14">
         <f t="shared" ca="1" si="2"/>
-        <v>3.8220000000000005</v>
+        <v>3.8850000000000002</v>
       </c>
       <c r="P29" s="14"/>
       <c r="Q29" s="14"/>
       <c r="R29" s="15">
         <f ca="1">Sheet2!E3</f>
-        <v>4.0540000000000003</v>
+        <v>4.1150000000000002</v>
       </c>
       <c r="S29" s="16"/>
       <c r="T29" s="17"/>
       <c r="U29" s="14">
         <f t="shared" ca="1" si="3"/>
-        <v>3.8320000000000003</v>
+        <v>3.8940000000000001</v>
       </c>
       <c r="V29" s="14"/>
       <c r="W29" s="14"/>
       <c r="X29" s="14">
         <f t="shared" ca="1" si="4"/>
-        <v>3.7940000000000005</v>
+        <v>3.8530000000000006</v>
       </c>
       <c r="Y29" s="14"/>
       <c r="Z29" s="14"/>
       <c r="AA29" s="14">
         <f t="shared" ca="1" si="5"/>
-        <v>3.7040000000000002</v>
+        <v>3.7640000000000002</v>
       </c>
       <c r="AB29" s="14"/>
       <c r="AC29" s="14"/>
       <c r="AD29" s="11"/>
       <c r="AE29" s="12"/>
-      <c r="AF29" s="30"/>
+      <c r="AF29" s="27"/>
     </row>
     <row r="30" spans="1:32" ht="17.100000000000001" customHeight="1">
       <c r="A30" s="77"/>
@@ -3696,7 +3696,7 @@
       <c r="AC30" s="13"/>
       <c r="AD30" s="11"/>
       <c r="AE30" s="12"/>
-      <c r="AF30" s="30"/>
+      <c r="AF30" s="27"/>
     </row>
     <row r="31" spans="1:32" ht="17.100000000000001" customHeight="1">
       <c r="A31" s="77"/>
@@ -3715,49 +3715,49 @@
       <c r="H31" s="13"/>
       <c r="I31" s="14">
         <f ca="1">R31-(14*2%)+RANDBETWEEN(-2,2)*0.001</f>
-        <v>3.4789999999999996</v>
+        <v>3.5429999999999997</v>
       </c>
       <c r="J31" s="14"/>
       <c r="K31" s="14"/>
       <c r="L31" s="14">
         <f ca="1">R31-(9.5*2%)+RANDBETWEEN(-2,2)*0.001</f>
-        <v>3.5680000000000001</v>
+        <v>3.6339999999999999</v>
       </c>
       <c r="M31" s="14"/>
       <c r="N31" s="14"/>
       <c r="O31" s="14">
         <f ca="1">R31-(7.5*2%)+RANDBETWEEN(-2,2)*0.001</f>
-        <v>3.6070000000000002</v>
+        <v>3.6749999999999998</v>
       </c>
       <c r="P31" s="14"/>
       <c r="Q31" s="14"/>
       <c r="R31" s="15">
         <f ca="1">Sheet2!E5</f>
-        <v>3.758</v>
+        <v>3.8239999999999998</v>
       </c>
       <c r="S31" s="16"/>
       <c r="T31" s="17"/>
       <c r="U31" s="14">
         <f ca="1">R31-(7.5*2%)+RANDBETWEEN(-2,2)*0.001</f>
-        <v>3.6070000000000002</v>
+        <v>3.6720000000000002</v>
       </c>
       <c r="V31" s="14"/>
       <c r="W31" s="14"/>
       <c r="X31" s="14">
         <f ca="1">R31-(9.5*2%)+RANDBETWEEN(-2,2)*0.001</f>
-        <v>3.5680000000000001</v>
+        <v>3.6339999999999999</v>
       </c>
       <c r="Y31" s="14"/>
       <c r="Z31" s="14"/>
       <c r="AA31" s="14">
         <f ca="1">R31-(14*2%)+RANDBETWEEN(-2,2)*0.001</f>
-        <v>3.4779999999999998</v>
+        <v>3.5429999999999997</v>
       </c>
       <c r="AB31" s="14"/>
       <c r="AC31" s="14"/>
       <c r="AD31" s="11"/>
       <c r="AE31" s="12"/>
-      <c r="AF31" s="30"/>
+      <c r="AF31" s="27"/>
     </row>
     <row r="32" spans="1:32" ht="17.100000000000001" customHeight="1">
       <c r="A32" s="77"/>
@@ -3776,49 +3776,49 @@
       <c r="H32" s="13"/>
       <c r="I32" s="14">
         <f t="shared" ref="I32:I43" ca="1" si="6">R32-(14*2%)+RANDBETWEEN(-2,2)*0.001</f>
-        <v>3.4050000000000002</v>
+        <v>3.4640000000000004</v>
       </c>
       <c r="J32" s="14"/>
       <c r="K32" s="14"/>
       <c r="L32" s="14">
         <f t="shared" ref="L32:L43" ca="1" si="7">R32-(9.5*2%)+RANDBETWEEN(-2,2)*0.001</f>
-        <v>3.4969999999999999</v>
+        <v>3.5530000000000004</v>
       </c>
       <c r="M32" s="14"/>
       <c r="N32" s="14"/>
       <c r="O32" s="14">
         <f t="shared" ref="O32:O43" ca="1" si="8">R32-(7.5*2%)+RANDBETWEEN(-2,2)*0.001</f>
-        <v>3.5379999999999998</v>
+        <v>3.5940000000000003</v>
       </c>
       <c r="P32" s="14"/>
       <c r="Q32" s="14"/>
       <c r="R32" s="15">
         <f ca="1">Sheet2!E6</f>
-        <v>3.6869999999999998</v>
+        <v>3.7440000000000002</v>
       </c>
       <c r="S32" s="16"/>
       <c r="T32" s="17"/>
       <c r="U32" s="14">
         <f t="shared" ref="U32:U43" ca="1" si="9">R32-(7.5*2%)+RANDBETWEEN(-2,2)*0.001</f>
-        <v>3.5379999999999998</v>
+        <v>3.5950000000000002</v>
       </c>
       <c r="V32" s="14"/>
       <c r="W32" s="14"/>
       <c r="X32" s="14">
         <f t="shared" ref="X32:X43" ca="1" si="10">R32-(9.5*2%)+RANDBETWEEN(-2,2)*0.001</f>
-        <v>3.4979999999999998</v>
+        <v>3.5520000000000005</v>
       </c>
       <c r="Y32" s="14"/>
       <c r="Z32" s="14"/>
       <c r="AA32" s="14">
         <f t="shared" ref="AA32:AA43" ca="1" si="11">R32-(14*2%)+RANDBETWEEN(-2,2)*0.001</f>
-        <v>3.4079999999999999</v>
+        <v>3.4620000000000006</v>
       </c>
       <c r="AB32" s="14"/>
       <c r="AC32" s="14"/>
       <c r="AD32" s="11"/>
       <c r="AE32" s="12"/>
-      <c r="AF32" s="30"/>
+      <c r="AF32" s="27"/>
     </row>
     <row r="33" spans="1:32" ht="17.100000000000001" customHeight="1">
       <c r="A33" s="77"/>
@@ -3837,49 +3837,49 @@
       <c r="H33" s="14"/>
       <c r="I33" s="14">
         <f t="shared" ca="1" si="6"/>
-        <v>3.2860000000000005</v>
+        <v>3.3520000000000003</v>
       </c>
       <c r="J33" s="14"/>
       <c r="K33" s="14"/>
       <c r="L33" s="14">
         <f t="shared" ca="1" si="7"/>
-        <v>3.3760000000000003</v>
+        <v>3.4410000000000003</v>
       </c>
       <c r="M33" s="14"/>
       <c r="N33" s="14"/>
       <c r="O33" s="14">
         <f t="shared" ca="1" si="8"/>
-        <v>3.4160000000000004</v>
+        <v>3.4820000000000002</v>
       </c>
       <c r="P33" s="14"/>
       <c r="Q33" s="14"/>
       <c r="R33" s="15">
         <f ca="1">Sheet2!E7</f>
-        <v>3.5660000000000003</v>
+        <v>3.6320000000000001</v>
       </c>
       <c r="S33" s="16"/>
       <c r="T33" s="17"/>
       <c r="U33" s="14">
         <f t="shared" ca="1" si="9"/>
-        <v>3.4180000000000001</v>
+        <v>3.4810000000000003</v>
       </c>
       <c r="V33" s="14"/>
       <c r="W33" s="14"/>
       <c r="X33" s="14">
         <f t="shared" ca="1" si="10"/>
-        <v>3.3760000000000003</v>
+        <v>3.4410000000000003</v>
       </c>
       <c r="Y33" s="14"/>
       <c r="Z33" s="14"/>
       <c r="AA33" s="14">
         <f t="shared" ca="1" si="11"/>
-        <v>3.2840000000000007</v>
+        <v>3.3510000000000004</v>
       </c>
       <c r="AB33" s="14"/>
       <c r="AC33" s="14"/>
       <c r="AD33" s="11"/>
       <c r="AE33" s="12"/>
-      <c r="AF33" s="30"/>
+      <c r="AF33" s="27"/>
     </row>
     <row r="34" spans="1:32" ht="17.100000000000001" customHeight="1">
       <c r="A34" s="77"/>
@@ -3898,49 +3898,49 @@
       <c r="H34" s="14"/>
       <c r="I34" s="14">
         <f t="shared" ca="1" si="6"/>
-        <v>3.1989999999999998</v>
+        <v>3.26</v>
       </c>
       <c r="J34" s="14"/>
       <c r="K34" s="14"/>
       <c r="L34" s="14">
         <f t="shared" ca="1" si="7"/>
-        <v>3.2909999999999995</v>
+        <v>3.3499999999999996</v>
       </c>
       <c r="M34" s="14"/>
       <c r="N34" s="14"/>
       <c r="O34" s="14">
         <f t="shared" ca="1" si="8"/>
-        <v>3.3279999999999998</v>
+        <v>3.3879999999999999</v>
       </c>
       <c r="P34" s="14"/>
       <c r="Q34" s="14"/>
       <c r="R34" s="15">
         <f ca="1">Sheet2!E8</f>
-        <v>3.4789999999999996</v>
+        <v>3.5379999999999998</v>
       </c>
       <c r="S34" s="16"/>
       <c r="T34" s="17"/>
       <c r="U34" s="14">
         <f t="shared" ca="1" si="9"/>
-        <v>3.327</v>
+        <v>3.3879999999999999</v>
       </c>
       <c r="V34" s="14"/>
       <c r="W34" s="14"/>
       <c r="X34" s="14">
         <f t="shared" ca="1" si="10"/>
-        <v>3.2909999999999995</v>
+        <v>3.347</v>
       </c>
       <c r="Y34" s="14"/>
       <c r="Z34" s="14"/>
       <c r="AA34" s="14">
         <f t="shared" ca="1" si="11"/>
-        <v>3.1999999999999997</v>
+        <v>3.258</v>
       </c>
       <c r="AB34" s="14"/>
       <c r="AC34" s="14"/>
       <c r="AD34" s="11"/>
       <c r="AE34" s="12"/>
-      <c r="AF34" s="30"/>
+      <c r="AF34" s="27"/>
     </row>
     <row r="35" spans="1:32" ht="17.100000000000001" customHeight="1">
       <c r="A35" s="77"/>
@@ -3959,49 +3959,49 @@
       <c r="H35" s="14"/>
       <c r="I35" s="14">
         <f t="shared" ca="1" si="6"/>
-        <v>3.1379999999999999</v>
+        <v>3.1919999999999997</v>
       </c>
       <c r="J35" s="14"/>
       <c r="K35" s="14"/>
       <c r="L35" s="14">
         <f t="shared" ca="1" si="7"/>
-        <v>3.2260000000000004</v>
+        <v>3.2829999999999999</v>
       </c>
       <c r="M35" s="14"/>
       <c r="N35" s="14"/>
       <c r="O35" s="14">
         <f t="shared" ca="1" si="8"/>
-        <v>3.27</v>
+        <v>3.323</v>
       </c>
       <c r="P35" s="14"/>
       <c r="Q35" s="14"/>
       <c r="R35" s="15">
         <f ca="1">Sheet2!E9</f>
-        <v>3.4180000000000001</v>
+        <v>3.4710000000000001</v>
       </c>
       <c r="S35" s="16"/>
       <c r="T35" s="17"/>
       <c r="U35" s="14">
         <f t="shared" ca="1" si="9"/>
-        <v>3.2690000000000001</v>
+        <v>3.3210000000000002</v>
       </c>
       <c r="V35" s="14"/>
       <c r="W35" s="14"/>
       <c r="X35" s="14">
         <f t="shared" ca="1" si="10"/>
-        <v>3.2290000000000001</v>
+        <v>3.2829999999999999</v>
       </c>
       <c r="Y35" s="14"/>
       <c r="Z35" s="14"/>
       <c r="AA35" s="14">
         <f t="shared" ca="1" si="11"/>
-        <v>3.1360000000000001</v>
+        <v>3.1929999999999996</v>
       </c>
       <c r="AB35" s="14"/>
       <c r="AC35" s="14"/>
       <c r="AD35" s="11"/>
       <c r="AE35" s="12"/>
-      <c r="AF35" s="30"/>
+      <c r="AF35" s="27"/>
     </row>
     <row r="36" spans="1:32" ht="17.100000000000001" customHeight="1">
       <c r="A36" s="77"/>
@@ -4020,49 +4020,49 @@
       <c r="H36" s="14"/>
       <c r="I36" s="14">
         <f t="shared" ca="1" si="6"/>
-        <v>3.1030000000000002</v>
+        <v>3.1590000000000003</v>
       </c>
       <c r="J36" s="14"/>
       <c r="K36" s="14"/>
       <c r="L36" s="14">
         <f t="shared" ca="1" si="7"/>
-        <v>3.194</v>
+        <v>3.2480000000000002</v>
       </c>
       <c r="M36" s="14"/>
       <c r="N36" s="14"/>
       <c r="O36" s="14">
         <f t="shared" ca="1" si="8"/>
-        <v>3.234</v>
+        <v>3.29</v>
       </c>
       <c r="P36" s="14"/>
       <c r="Q36" s="14"/>
       <c r="R36" s="15">
         <f ca="1">Sheet2!E10</f>
-        <v>3.3820000000000001</v>
+        <v>3.44</v>
       </c>
       <c r="S36" s="16"/>
       <c r="T36" s="17"/>
       <c r="U36" s="14">
         <f t="shared" ca="1" si="9"/>
-        <v>3.234</v>
+        <v>3.2880000000000003</v>
       </c>
       <c r="V36" s="14"/>
       <c r="W36" s="14"/>
       <c r="X36" s="14">
         <f t="shared" ca="1" si="10"/>
-        <v>3.194</v>
+        <v>3.25</v>
       </c>
       <c r="Y36" s="14"/>
       <c r="Z36" s="14"/>
       <c r="AA36" s="14">
         <f t="shared" ca="1" si="11"/>
-        <v>3.1040000000000001</v>
+        <v>3.1619999999999999</v>
       </c>
       <c r="AB36" s="14"/>
       <c r="AC36" s="14"/>
       <c r="AD36" s="11"/>
       <c r="AE36" s="12"/>
-      <c r="AF36" s="30"/>
+      <c r="AF36" s="27"/>
     </row>
     <row r="37" spans="1:32" ht="17.100000000000001" customHeight="1">
       <c r="A37" s="77"/>
@@ -4081,49 +4081,49 @@
       <c r="H37" s="14"/>
       <c r="I37" s="14">
         <f t="shared" ca="1" si="6"/>
-        <v>3.077</v>
+        <v>3.1390000000000002</v>
       </c>
       <c r="J37" s="14"/>
       <c r="K37" s="14"/>
       <c r="L37" s="14">
         <f t="shared" ca="1" si="7"/>
-        <v>3.1709999999999998</v>
+        <v>3.2260000000000004</v>
       </c>
       <c r="M37" s="14"/>
       <c r="N37" s="14"/>
       <c r="O37" s="14">
         <f t="shared" ca="1" si="8"/>
-        <v>3.2070000000000003</v>
+        <v>3.2650000000000006</v>
       </c>
       <c r="P37" s="14"/>
       <c r="Q37" s="14"/>
       <c r="R37" s="15">
         <f ca="1">Sheet2!E11</f>
-        <v>3.359</v>
+        <v>3.4170000000000003</v>
       </c>
       <c r="S37" s="16"/>
       <c r="T37" s="17"/>
       <c r="U37" s="14">
         <f t="shared" ca="1" si="9"/>
-        <v>3.2090000000000001</v>
+        <v>3.2680000000000002</v>
       </c>
       <c r="V37" s="14"/>
       <c r="W37" s="14"/>
       <c r="X37" s="14">
         <f t="shared" ca="1" si="10"/>
-        <v>3.1680000000000001</v>
+        <v>3.2280000000000002</v>
       </c>
       <c r="Y37" s="14"/>
       <c r="Z37" s="14"/>
       <c r="AA37" s="14">
         <f t="shared" ca="1" si="11"/>
-        <v>3.0779999999999998</v>
+        <v>3.1350000000000007</v>
       </c>
       <c r="AB37" s="14"/>
       <c r="AC37" s="14"/>
       <c r="AD37" s="11"/>
       <c r="AE37" s="12"/>
-      <c r="AF37" s="30"/>
+      <c r="AF37" s="27"/>
     </row>
     <row r="38" spans="1:32" ht="17.100000000000001" customHeight="1">
       <c r="A38" s="77"/>
@@ -4142,49 +4142,49 @@
       <c r="H38" s="14"/>
       <c r="I38" s="14">
         <f t="shared" ca="1" si="6"/>
-        <v>3.0520000000000005</v>
+        <v>3.1209999999999996</v>
       </c>
       <c r="J38" s="14"/>
       <c r="K38" s="14"/>
       <c r="L38" s="14">
         <f t="shared" ca="1" si="7"/>
-        <v>3.1440000000000001</v>
+        <v>3.2109999999999999</v>
       </c>
       <c r="M38" s="14"/>
       <c r="N38" s="14"/>
       <c r="O38" s="14">
         <f t="shared" ca="1" si="8"/>
-        <v>3.1820000000000004</v>
+        <v>3.2470000000000003</v>
       </c>
       <c r="P38" s="14"/>
       <c r="Q38" s="14"/>
       <c r="R38" s="15">
         <f ca="1">Sheet2!E12</f>
-        <v>3.3340000000000001</v>
+        <v>3.399</v>
       </c>
       <c r="S38" s="16"/>
       <c r="T38" s="17"/>
       <c r="U38" s="14">
         <f t="shared" ca="1" si="9"/>
-        <v>3.1850000000000001</v>
+        <v>3.2509999999999999</v>
       </c>
       <c r="V38" s="14"/>
       <c r="W38" s="14"/>
       <c r="X38" s="14">
         <f t="shared" ca="1" si="10"/>
-        <v>3.1459999999999999</v>
+        <v>3.2070000000000003</v>
       </c>
       <c r="Y38" s="14"/>
       <c r="Z38" s="14"/>
       <c r="AA38" s="14">
         <f t="shared" ca="1" si="11"/>
-        <v>3.0550000000000002</v>
+        <v>3.1179999999999999</v>
       </c>
       <c r="AB38" s="14"/>
       <c r="AC38" s="14"/>
       <c r="AD38" s="11"/>
       <c r="AE38" s="12"/>
-      <c r="AF38" s="30"/>
+      <c r="AF38" s="27"/>
     </row>
     <row r="39" spans="1:32" ht="17.100000000000001" customHeight="1">
       <c r="A39" s="77"/>
@@ -4203,49 +4203,49 @@
       <c r="H39" s="14"/>
       <c r="I39" s="14">
         <f t="shared" ca="1" si="6"/>
-        <v>3.0399999999999996</v>
+        <v>3.0930000000000004</v>
       </c>
       <c r="J39" s="14"/>
       <c r="K39" s="14"/>
       <c r="L39" s="14">
         <f t="shared" ca="1" si="7"/>
-        <v>3.1309999999999998</v>
+        <v>3.1820000000000004</v>
       </c>
       <c r="M39" s="14"/>
       <c r="N39" s="14"/>
       <c r="O39" s="14">
         <f t="shared" ca="1" si="8"/>
-        <v>3.169</v>
+        <v>3.2230000000000003</v>
       </c>
       <c r="P39" s="14"/>
       <c r="Q39" s="14"/>
       <c r="R39" s="15">
         <f ca="1">Sheet2!E13</f>
-        <v>3.319</v>
+        <v>3.3740000000000001</v>
       </c>
       <c r="S39" s="16"/>
       <c r="T39" s="17"/>
       <c r="U39" s="14">
         <f t="shared" ca="1" si="9"/>
-        <v>3.17</v>
+        <v>3.2220000000000004</v>
       </c>
       <c r="V39" s="14"/>
       <c r="W39" s="14"/>
       <c r="X39" s="14">
         <f t="shared" ca="1" si="10"/>
-        <v>3.1309999999999998</v>
+        <v>3.1850000000000001</v>
       </c>
       <c r="Y39" s="14"/>
       <c r="Z39" s="14"/>
       <c r="AA39" s="14">
         <f t="shared" ca="1" si="11"/>
-        <v>3.0379999999999998</v>
+        <v>3.0920000000000005</v>
       </c>
       <c r="AB39" s="14"/>
       <c r="AC39" s="14"/>
       <c r="AD39" s="11"/>
       <c r="AE39" s="12"/>
-      <c r="AF39" s="30"/>
+      <c r="AF39" s="27"/>
     </row>
     <row r="40" spans="1:32" ht="17.100000000000001" customHeight="1">
       <c r="A40" s="77"/>
@@ -4264,49 +4264,49 @@
       <c r="H40" s="14"/>
       <c r="I40" s="14">
         <f t="shared" ca="1" si="6"/>
-        <v>3.0219999999999998</v>
+        <v>3.0859999999999994</v>
       </c>
       <c r="J40" s="14"/>
       <c r="K40" s="14"/>
       <c r="L40" s="14">
         <f t="shared" ca="1" si="7"/>
-        <v>3.11</v>
+        <v>3.1769999999999996</v>
       </c>
       <c r="M40" s="14"/>
       <c r="N40" s="14"/>
       <c r="O40" s="14">
         <f t="shared" ca="1" si="8"/>
-        <v>3.1529999999999996</v>
+        <v>3.214</v>
       </c>
       <c r="P40" s="14"/>
       <c r="Q40" s="14"/>
       <c r="R40" s="15">
         <f ca="1">Sheet2!E14</f>
-        <v>3.3009999999999997</v>
+        <v>3.3659999999999997</v>
       </c>
       <c r="S40" s="16"/>
       <c r="T40" s="17"/>
       <c r="U40" s="14">
         <f t="shared" ca="1" si="9"/>
-        <v>3.15</v>
+        <v>3.214</v>
       </c>
       <c r="V40" s="14"/>
       <c r="W40" s="14"/>
       <c r="X40" s="14">
         <f t="shared" ca="1" si="10"/>
-        <v>3.1119999999999997</v>
+        <v>3.1779999999999995</v>
       </c>
       <c r="Y40" s="14"/>
       <c r="Z40" s="14"/>
       <c r="AA40" s="14">
         <f t="shared" ca="1" si="11"/>
-        <v>3.0219999999999998</v>
+        <v>3.0879999999999992</v>
       </c>
       <c r="AB40" s="14"/>
       <c r="AC40" s="14"/>
       <c r="AD40" s="11"/>
       <c r="AE40" s="12"/>
-      <c r="AF40" s="30"/>
+      <c r="AF40" s="27"/>
     </row>
     <row r="41" spans="1:32" ht="17.100000000000001" customHeight="1">
       <c r="A41" s="79"/>
@@ -4325,49 +4325,49 @@
       <c r="H41" s="13"/>
       <c r="I41" s="14">
         <f t="shared" ca="1" si="6"/>
-        <v>3.024</v>
+        <v>3.0900000000000003</v>
       </c>
       <c r="J41" s="14"/>
       <c r="K41" s="14"/>
       <c r="L41" s="14">
         <f t="shared" ca="1" si="7"/>
-        <v>3.1120000000000001</v>
+        <v>3.18</v>
       </c>
       <c r="M41" s="14"/>
       <c r="N41" s="14"/>
       <c r="O41" s="14">
         <f t="shared" ca="1" si="8"/>
-        <v>3.1520000000000001</v>
+        <v>3.22</v>
       </c>
       <c r="P41" s="14"/>
       <c r="Q41" s="14"/>
       <c r="R41" s="15">
         <f ca="1">Sheet2!E15</f>
-        <v>3.3039999999999998</v>
+        <v>3.371</v>
       </c>
       <c r="S41" s="16"/>
       <c r="T41" s="17"/>
       <c r="U41" s="14">
         <f t="shared" ca="1" si="9"/>
-        <v>3.1549999999999998</v>
+        <v>3.22</v>
       </c>
       <c r="V41" s="14"/>
       <c r="W41" s="14"/>
       <c r="X41" s="14">
         <f t="shared" ca="1" si="10"/>
-        <v>3.1120000000000001</v>
+        <v>3.18</v>
       </c>
       <c r="Y41" s="14"/>
       <c r="Z41" s="14"/>
       <c r="AA41" s="14">
         <f t="shared" ca="1" si="11"/>
-        <v>3.0249999999999999</v>
+        <v>3.0920000000000001</v>
       </c>
       <c r="AB41" s="14"/>
       <c r="AC41" s="14"/>
       <c r="AD41" s="11"/>
       <c r="AE41" s="12"/>
-      <c r="AF41" s="30"/>
+      <c r="AF41" s="27"/>
     </row>
     <row r="42" spans="1:32" ht="17.100000000000001" customHeight="1">
       <c r="A42" s="77"/>
@@ -4386,49 +4386,49 @@
       <c r="H42" s="14"/>
       <c r="I42" s="14">
         <f t="shared" ca="1" si="6"/>
-        <v>3.0490000000000004</v>
+        <v>3.1109999999999998</v>
       </c>
       <c r="J42" s="14"/>
       <c r="K42" s="14"/>
       <c r="L42" s="14">
         <f t="shared" ca="1" si="7"/>
-        <v>3.141</v>
+        <v>3.198</v>
       </c>
       <c r="M42" s="14"/>
       <c r="N42" s="14"/>
       <c r="O42" s="14">
         <f t="shared" ca="1" si="8"/>
-        <v>3.1790000000000003</v>
+        <v>3.2399999999999998</v>
       </c>
       <c r="P42" s="14"/>
       <c r="Q42" s="14"/>
       <c r="R42" s="15">
         <f ca="1">Sheet2!E16</f>
-        <v>3.331</v>
+        <v>3.3889999999999998</v>
       </c>
       <c r="S42" s="16"/>
       <c r="T42" s="17"/>
       <c r="U42" s="14">
         <f t="shared" ca="1" si="9"/>
-        <v>3.1819999999999999</v>
+        <v>3.2370000000000001</v>
       </c>
       <c r="V42" s="14"/>
       <c r="W42" s="14"/>
       <c r="X42" s="14">
         <f t="shared" ca="1" si="10"/>
-        <v>3.1419999999999999</v>
+        <v>3.198</v>
       </c>
       <c r="Y42" s="14"/>
       <c r="Z42" s="14"/>
       <c r="AA42" s="14">
         <f t="shared" ca="1" si="11"/>
-        <v>3.052</v>
+        <v>3.1109999999999998</v>
       </c>
       <c r="AB42" s="14"/>
       <c r="AC42" s="14"/>
       <c r="AD42" s="11"/>
       <c r="AE42" s="12"/>
-      <c r="AF42" s="30"/>
+      <c r="AF42" s="27"/>
     </row>
     <row r="43" spans="1:32" ht="17.100000000000001" customHeight="1">
       <c r="A43" s="77"/>
@@ -4447,49 +4447,49 @@
       <c r="H43" s="14"/>
       <c r="I43" s="14">
         <f t="shared" ca="1" si="6"/>
-        <v>3.085</v>
+        <v>3.1439999999999997</v>
       </c>
       <c r="J43" s="14"/>
       <c r="K43" s="14"/>
       <c r="L43" s="14">
         <f t="shared" ca="1" si="7"/>
-        <v>3.177</v>
+        <v>3.2310000000000003</v>
       </c>
       <c r="M43" s="14"/>
       <c r="N43" s="14"/>
       <c r="O43" s="14">
         <f t="shared" ca="1" si="8"/>
-        <v>3.2130000000000005</v>
+        <v>3.2710000000000004</v>
       </c>
       <c r="P43" s="14"/>
       <c r="Q43" s="14"/>
       <c r="R43" s="15">
         <f ca="1">Sheet2!E17</f>
-        <v>3.3650000000000002</v>
+        <v>3.423</v>
       </c>
       <c r="S43" s="16"/>
       <c r="T43" s="17"/>
       <c r="U43" s="14">
         <f t="shared" ca="1" si="9"/>
-        <v>3.2140000000000004</v>
+        <v>3.2710000000000004</v>
       </c>
       <c r="V43" s="14"/>
       <c r="W43" s="14"/>
       <c r="X43" s="14">
         <f t="shared" ca="1" si="10"/>
-        <v>3.177</v>
+        <v>3.2310000000000003</v>
       </c>
       <c r="Y43" s="14"/>
       <c r="Z43" s="14"/>
       <c r="AA43" s="14">
         <f t="shared" ca="1" si="11"/>
-        <v>3.085</v>
+        <v>3.1419999999999999</v>
       </c>
       <c r="AB43" s="14"/>
       <c r="AC43" s="14"/>
       <c r="AD43" s="11"/>
       <c r="AE43" s="12"/>
-      <c r="AF43" s="30"/>
+      <c r="AF43" s="27"/>
     </row>
     <row r="44" spans="1:32" ht="10.5" customHeight="1">
       <c r="A44" s="89" t="s">
@@ -5161,21 +5161,21 @@
     <row r="64" spans="1:32">
       <c r="A64" s="77"/>
       <c r="B64" s="48"/>
-      <c r="C64" s="21" t="s">
+      <c r="C64" s="18" t="s">
         <v>11</v>
       </c>
-      <c r="D64" s="22"/>
-      <c r="E64" s="22"/>
-      <c r="F64" s="22"/>
+      <c r="D64" s="19"/>
+      <c r="E64" s="19"/>
+      <c r="F64" s="19"/>
       <c r="G64" s="81"/>
-      <c r="H64" s="21" t="s">
+      <c r="H64" s="18" t="s">
         <v>27</v>
       </c>
-      <c r="I64" s="22"/>
-      <c r="J64" s="22"/>
-      <c r="K64" s="22"/>
-      <c r="L64" s="22"/>
-      <c r="M64" s="22"/>
+      <c r="I64" s="19"/>
+      <c r="J64" s="19"/>
+      <c r="K64" s="19"/>
+      <c r="L64" s="19"/>
+      <c r="M64" s="19"/>
       <c r="N64" s="81"/>
       <c r="O64" s="83" t="s">
         <v>12</v>
@@ -5203,17 +5203,17 @@
     <row r="65" spans="1:32" ht="7.5" customHeight="1">
       <c r="A65" s="77"/>
       <c r="B65" s="48"/>
-      <c r="C65" s="27"/>
-      <c r="D65" s="28"/>
-      <c r="E65" s="28"/>
-      <c r="F65" s="28"/>
+      <c r="C65" s="24"/>
+      <c r="D65" s="25"/>
+      <c r="E65" s="25"/>
+      <c r="F65" s="25"/>
       <c r="G65" s="82"/>
-      <c r="H65" s="27"/>
-      <c r="I65" s="28"/>
-      <c r="J65" s="28"/>
-      <c r="K65" s="28"/>
-      <c r="L65" s="28"/>
-      <c r="M65" s="28"/>
+      <c r="H65" s="24"/>
+      <c r="I65" s="25"/>
+      <c r="J65" s="25"/>
+      <c r="K65" s="25"/>
+      <c r="L65" s="25"/>
+      <c r="M65" s="25"/>
       <c r="N65" s="82"/>
       <c r="O65" s="86"/>
       <c r="P65" s="87"/>
@@ -5656,7 +5656,7 @@
       <c r="AC77" s="13"/>
       <c r="AD77" s="11"/>
       <c r="AE77" s="12"/>
-      <c r="AF77" s="30"/>
+      <c r="AF77" s="27"/>
     </row>
     <row r="78" spans="1:32" ht="14.25" customHeight="1">
       <c r="A78" s="77"/>
@@ -5671,43 +5671,43 @@
       <c r="H78" s="13"/>
       <c r="I78" s="14">
         <f t="shared" ref="I78" ca="1" si="12">R78-(14*2%)+RANDBETWEEN(-2,2)*0.001</f>
-        <v>3.141</v>
+        <v>3.2059999999999995</v>
       </c>
       <c r="J78" s="14"/>
       <c r="K78" s="14"/>
       <c r="L78" s="14">
         <f t="shared" ref="L78" ca="1" si="13">R78-(9.5*2%)+RANDBETWEEN(-2,2)*0.001</f>
-        <v>3.2309999999999999</v>
+        <v>3.2959999999999998</v>
       </c>
       <c r="M78" s="14"/>
       <c r="N78" s="14"/>
       <c r="O78" s="14">
         <f t="shared" ref="O78" ca="1" si="14">R78-(7.5*2%)+RANDBETWEEN(-2,2)*0.001</f>
-        <v>3.27</v>
+        <v>3.3359999999999999</v>
       </c>
       <c r="P78" s="14"/>
       <c r="Q78" s="14"/>
       <c r="R78" s="15">
         <f ca="1">Sheet2!E18</f>
-        <v>3.419</v>
+        <v>3.484</v>
       </c>
       <c r="S78" s="16"/>
       <c r="T78" s="17"/>
       <c r="U78" s="14">
         <f t="shared" ref="U78" ca="1" si="15">R78-(7.5*2%)+RANDBETWEEN(-2,2)*0.001</f>
-        <v>3.2670000000000003</v>
+        <v>3.335</v>
       </c>
       <c r="V78" s="14"/>
       <c r="W78" s="14"/>
       <c r="X78" s="14">
         <f t="shared" ref="X78" ca="1" si="16">R78-(9.5*2%)+RANDBETWEEN(-2,2)*0.001</f>
-        <v>3.2280000000000002</v>
+        <v>3.294</v>
       </c>
       <c r="Y78" s="14"/>
       <c r="Z78" s="14"/>
       <c r="AA78" s="14">
         <f t="shared" ref="AA78" ca="1" si="17">R78-(14*2%)+RANDBETWEEN(-2,2)*0.001</f>
-        <v>3.1380000000000003</v>
+        <v>3.2049999999999996</v>
       </c>
       <c r="AB78" s="14"/>
       <c r="AC78" s="14"/>
@@ -5728,43 +5728,43 @@
       <c r="H79" s="14"/>
       <c r="I79" s="14">
         <f t="shared" ref="I79:I92" ca="1" si="18">R79-(14*2%)+RANDBETWEEN(-2,2)*0.001</f>
-        <v>3.2130000000000001</v>
+        <v>3.2749999999999995</v>
       </c>
       <c r="J79" s="14"/>
       <c r="K79" s="14"/>
       <c r="L79" s="14">
         <f t="shared" ref="L79:L92" ca="1" si="19">R79-(9.5*2%)+RANDBETWEEN(-2,2)*0.001</f>
-        <v>3.3049999999999997</v>
+        <v>3.363</v>
       </c>
       <c r="M79" s="14"/>
       <c r="N79" s="14"/>
       <c r="O79" s="14">
         <f t="shared" ref="O79:O92" ca="1" si="20">R79-(7.5*2%)+RANDBETWEEN(-2,2)*0.001</f>
-        <v>3.3410000000000002</v>
+        <v>3.4049999999999998</v>
       </c>
       <c r="P79" s="14"/>
       <c r="Q79" s="14"/>
       <c r="R79" s="15">
         <f ca="1">Sheet2!E19</f>
-        <v>3.4929999999999999</v>
+        <v>3.5529999999999999</v>
       </c>
       <c r="S79" s="16"/>
       <c r="T79" s="17"/>
       <c r="U79" s="14">
         <f t="shared" ref="U79:U92" ca="1" si="21">R79-(7.5*2%)+RANDBETWEEN(-2,2)*0.001</f>
-        <v>3.3449999999999998</v>
+        <v>3.4020000000000001</v>
       </c>
       <c r="V79" s="14"/>
       <c r="W79" s="14"/>
       <c r="X79" s="14">
         <f t="shared" ref="X79:X92" ca="1" si="22">R79-(9.5*2%)+RANDBETWEEN(-2,2)*0.001</f>
-        <v>3.3010000000000002</v>
+        <v>3.3649999999999998</v>
       </c>
       <c r="Y79" s="14"/>
       <c r="Z79" s="14"/>
       <c r="AA79" s="14">
         <f t="shared" ref="AA79:AA92" ca="1" si="23">R79-(14*2%)+RANDBETWEEN(-2,2)*0.001</f>
-        <v>3.2110000000000003</v>
+        <v>3.2709999999999999</v>
       </c>
       <c r="AB79" s="14"/>
       <c r="AC79" s="14"/>
@@ -5785,49 +5785,49 @@
       <c r="H80" s="13"/>
       <c r="I80" s="14">
         <f t="shared" ca="1" si="18"/>
-        <v>3.2810000000000006</v>
+        <v>3.3369999999999997</v>
       </c>
       <c r="J80" s="14"/>
       <c r="K80" s="14"/>
       <c r="L80" s="14">
         <f t="shared" ca="1" si="19"/>
-        <v>3.3720000000000003</v>
+        <v>3.4289999999999998</v>
       </c>
       <c r="M80" s="14"/>
       <c r="N80" s="14"/>
       <c r="O80" s="14">
         <f t="shared" ca="1" si="20"/>
-        <v>3.4140000000000001</v>
+        <v>3.4670000000000001</v>
       </c>
       <c r="P80" s="14"/>
       <c r="Q80" s="14"/>
       <c r="R80" s="15">
         <f ca="1">Sheet2!E20</f>
-        <v>3.5630000000000002</v>
+        <v>3.617</v>
       </c>
       <c r="S80" s="16"/>
       <c r="T80" s="17"/>
       <c r="U80" s="14">
         <f t="shared" ca="1" si="21"/>
-        <v>3.4110000000000005</v>
+        <v>3.4689999999999999</v>
       </c>
       <c r="V80" s="14"/>
       <c r="W80" s="14"/>
       <c r="X80" s="14">
         <f t="shared" ca="1" si="22"/>
-        <v>3.375</v>
+        <v>3.427</v>
       </c>
       <c r="Y80" s="14"/>
       <c r="Z80" s="14"/>
       <c r="AA80" s="14">
         <f t="shared" ca="1" si="23"/>
-        <v>3.2830000000000004</v>
+        <v>3.3389999999999995</v>
       </c>
       <c r="AB80" s="14"/>
       <c r="AC80" s="14"/>
       <c r="AD80" s="11"/>
       <c r="AE80" s="12"/>
-      <c r="AF80" s="30"/>
+      <c r="AF80" s="27"/>
     </row>
     <row r="81" spans="1:32" ht="14.25" customHeight="1">
       <c r="A81" s="77"/>
@@ -5837,54 +5837,54 @@
       </c>
       <c r="D81" s="9"/>
       <c r="E81" s="10"/>
-      <c r="F81" s="18"/>
-      <c r="G81" s="19"/>
-      <c r="H81" s="20"/>
+      <c r="F81" s="28"/>
+      <c r="G81" s="29"/>
+      <c r="H81" s="30"/>
       <c r="I81" s="14">
         <f t="shared" ca="1" si="18"/>
-        <v>3.3490000000000002</v>
+        <v>3.4079999999999999</v>
       </c>
       <c r="J81" s="14"/>
       <c r="K81" s="14"/>
       <c r="L81" s="14">
         <f t="shared" ca="1" si="19"/>
-        <v>3.4380000000000002</v>
+        <v>3.4980000000000002</v>
       </c>
       <c r="M81" s="14"/>
       <c r="N81" s="14"/>
       <c r="O81" s="14">
         <f t="shared" ca="1" si="20"/>
-        <v>3.4809999999999999</v>
+        <v>3.5380000000000003</v>
       </c>
       <c r="P81" s="14"/>
       <c r="Q81" s="14"/>
       <c r="R81" s="15">
         <f ca="1">Sheet2!E21</f>
-        <v>3.629</v>
+        <v>3.6890000000000001</v>
       </c>
       <c r="S81" s="16"/>
       <c r="T81" s="17"/>
       <c r="U81" s="14">
         <f t="shared" ca="1" si="21"/>
-        <v>3.48</v>
+        <v>3.5390000000000001</v>
       </c>
       <c r="V81" s="14"/>
       <c r="W81" s="14"/>
       <c r="X81" s="14">
         <f t="shared" ca="1" si="22"/>
-        <v>3.4370000000000003</v>
+        <v>3.4990000000000001</v>
       </c>
       <c r="Y81" s="14"/>
       <c r="Z81" s="14"/>
       <c r="AA81" s="14">
         <f t="shared" ca="1" si="23"/>
-        <v>3.35</v>
+        <v>3.4079999999999999</v>
       </c>
       <c r="AB81" s="14"/>
       <c r="AC81" s="14"/>
       <c r="AD81" s="11"/>
       <c r="AE81" s="12"/>
-      <c r="AF81" s="30"/>
+      <c r="AF81" s="27"/>
     </row>
     <row r="82" spans="1:32" ht="14.25" customHeight="1">
       <c r="A82" s="77"/>
@@ -5894,54 +5894,54 @@
       </c>
       <c r="D82" s="9"/>
       <c r="E82" s="10"/>
-      <c r="F82" s="18"/>
-      <c r="G82" s="19"/>
-      <c r="H82" s="20"/>
+      <c r="F82" s="28"/>
+      <c r="G82" s="29"/>
+      <c r="H82" s="30"/>
       <c r="I82" s="14">
         <f t="shared" ca="1" si="18"/>
-        <v>3.4180000000000001</v>
+        <v>3.476</v>
       </c>
       <c r="J82" s="14"/>
       <c r="K82" s="14"/>
       <c r="L82" s="14">
         <f t="shared" ca="1" si="19"/>
-        <v>3.508</v>
+        <v>3.5679999999999996</v>
       </c>
       <c r="M82" s="14"/>
       <c r="N82" s="14"/>
       <c r="O82" s="14">
         <f t="shared" ca="1" si="20"/>
-        <v>3.5470000000000002</v>
+        <v>3.605</v>
       </c>
       <c r="P82" s="14"/>
       <c r="Q82" s="14"/>
       <c r="R82" s="15">
         <f ca="1">Sheet2!E22</f>
-        <v>3.698</v>
+        <v>3.7559999999999998</v>
       </c>
       <c r="S82" s="16"/>
       <c r="T82" s="17"/>
       <c r="U82" s="14">
         <f t="shared" ca="1" si="21"/>
-        <v>3.5460000000000003</v>
+        <v>3.6040000000000001</v>
       </c>
       <c r="V82" s="14"/>
       <c r="W82" s="14"/>
       <c r="X82" s="14">
         <f t="shared" ca="1" si="22"/>
-        <v>3.51</v>
+        <v>3.5640000000000001</v>
       </c>
       <c r="Y82" s="14"/>
       <c r="Z82" s="14"/>
       <c r="AA82" s="14">
         <f t="shared" ca="1" si="23"/>
-        <v>3.42</v>
+        <v>3.4740000000000002</v>
       </c>
       <c r="AB82" s="14"/>
       <c r="AC82" s="14"/>
       <c r="AD82" s="11"/>
       <c r="AE82" s="12"/>
-      <c r="AF82" s="30"/>
+      <c r="AF82" s="27"/>
     </row>
     <row r="83" spans="1:32" ht="14.25" customHeight="1">
       <c r="A83" s="77"/>
@@ -5951,54 +5951,54 @@
       </c>
       <c r="D83" s="9"/>
       <c r="E83" s="10"/>
-      <c r="F83" s="18"/>
-      <c r="G83" s="19"/>
-      <c r="H83" s="20"/>
+      <c r="F83" s="28"/>
+      <c r="G83" s="29"/>
+      <c r="H83" s="30"/>
       <c r="I83" s="14">
         <f t="shared" ca="1" si="18"/>
-        <v>3.4629999999999996</v>
+        <v>3.5299999999999994</v>
       </c>
       <c r="J83" s="14"/>
       <c r="K83" s="14"/>
       <c r="L83" s="14">
         <f t="shared" ca="1" si="19"/>
-        <v>3.5510000000000002</v>
+        <v>3.6160000000000001</v>
       </c>
       <c r="M83" s="14"/>
       <c r="N83" s="14"/>
       <c r="O83" s="14">
         <f t="shared" ca="1" si="20"/>
-        <v>3.5910000000000002</v>
+        <v>3.657</v>
       </c>
       <c r="P83" s="14"/>
       <c r="Q83" s="14"/>
       <c r="R83" s="15">
         <f ca="1">Sheet2!E23</f>
-        <v>3.742</v>
+        <v>3.8079999999999998</v>
       </c>
       <c r="S83" s="16"/>
       <c r="T83" s="17"/>
       <c r="U83" s="14">
         <f t="shared" ca="1" si="21"/>
-        <v>3.5910000000000002</v>
+        <v>3.657</v>
       </c>
       <c r="V83" s="14"/>
       <c r="W83" s="14"/>
       <c r="X83" s="14">
         <f t="shared" ca="1" si="22"/>
-        <v>3.5529999999999999</v>
+        <v>3.6189999999999998</v>
       </c>
       <c r="Y83" s="14"/>
       <c r="Z83" s="14"/>
       <c r="AA83" s="14">
         <f t="shared" ca="1" si="23"/>
-        <v>3.4609999999999999</v>
+        <v>3.5269999999999997</v>
       </c>
       <c r="AB83" s="14"/>
       <c r="AC83" s="14"/>
       <c r="AD83" s="11"/>
       <c r="AE83" s="12"/>
-      <c r="AF83" s="30"/>
+      <c r="AF83" s="27"/>
     </row>
     <row r="84" spans="1:32" ht="14.25" customHeight="1">
       <c r="A84" s="77"/>
@@ -6008,54 +6008,54 @@
       </c>
       <c r="D84" s="9"/>
       <c r="E84" s="10"/>
-      <c r="F84" s="18"/>
-      <c r="G84" s="19"/>
-      <c r="H84" s="20"/>
+      <c r="F84" s="28"/>
+      <c r="G84" s="29"/>
+      <c r="H84" s="30"/>
       <c r="I84" s="14">
         <f t="shared" ca="1" si="18"/>
-        <v>3.4899999999999998</v>
+        <v>3.5450000000000004</v>
       </c>
       <c r="J84" s="14"/>
       <c r="K84" s="14"/>
       <c r="L84" s="14">
         <f t="shared" ca="1" si="19"/>
-        <v>3.5790000000000002</v>
+        <v>3.6340000000000003</v>
       </c>
       <c r="M84" s="14"/>
       <c r="N84" s="14"/>
       <c r="O84" s="14">
         <f t="shared" ca="1" si="20"/>
-        <v>3.621</v>
+        <v>3.6760000000000002</v>
       </c>
       <c r="P84" s="14"/>
       <c r="Q84" s="14"/>
       <c r="R84" s="15">
         <f ca="1">Sheet2!E24</f>
-        <v>3.7690000000000001</v>
+        <v>3.8240000000000003</v>
       </c>
       <c r="S84" s="16"/>
       <c r="T84" s="17"/>
       <c r="U84" s="14">
         <f t="shared" ca="1" si="21"/>
-        <v>3.6180000000000003</v>
+        <v>3.6740000000000004</v>
       </c>
       <c r="V84" s="14"/>
       <c r="W84" s="14"/>
       <c r="X84" s="14">
         <f t="shared" ca="1" si="22"/>
-        <v>3.5780000000000003</v>
+        <v>3.6360000000000001</v>
       </c>
       <c r="Y84" s="14"/>
       <c r="Z84" s="14"/>
       <c r="AA84" s="14">
         <f t="shared" ca="1" si="23"/>
-        <v>3.4899999999999998</v>
+        <v>3.5460000000000003</v>
       </c>
       <c r="AB84" s="14"/>
       <c r="AC84" s="14"/>
       <c r="AD84" s="11"/>
       <c r="AE84" s="12"/>
-      <c r="AF84" s="30"/>
+      <c r="AF84" s="27"/>
     </row>
     <row r="85" spans="1:32" ht="14.25" customHeight="1">
       <c r="A85" s="116"/>
@@ -6065,54 +6065,54 @@
       </c>
       <c r="D85" s="9"/>
       <c r="E85" s="10"/>
-      <c r="F85" s="18"/>
-      <c r="G85" s="19"/>
-      <c r="H85" s="20"/>
+      <c r="F85" s="28"/>
+      <c r="G85" s="29"/>
+      <c r="H85" s="30"/>
       <c r="I85" s="14">
         <f t="shared" ca="1" si="18"/>
-        <v>3.476</v>
+        <v>3.536</v>
       </c>
       <c r="J85" s="14"/>
       <c r="K85" s="14"/>
       <c r="L85" s="14">
         <f t="shared" ca="1" si="19"/>
-        <v>3.57</v>
+        <v>3.6289999999999996</v>
       </c>
       <c r="M85" s="14"/>
       <c r="N85" s="14"/>
       <c r="O85" s="14">
         <f t="shared" ca="1" si="20"/>
-        <v>3.609</v>
+        <v>3.6659999999999999</v>
       </c>
       <c r="P85" s="14"/>
       <c r="Q85" s="14"/>
       <c r="R85" s="15">
         <f ca="1">Sheet2!E25</f>
-        <v>3.758</v>
+        <v>3.8169999999999997</v>
       </c>
       <c r="S85" s="16"/>
       <c r="T85" s="17"/>
       <c r="U85" s="14">
         <f t="shared" ca="1" si="21"/>
-        <v>3.609</v>
+        <v>3.6689999999999996</v>
       </c>
       <c r="V85" s="14"/>
       <c r="W85" s="14"/>
       <c r="X85" s="14">
         <f t="shared" ca="1" si="22"/>
-        <v>3.569</v>
+        <v>3.6259999999999999</v>
       </c>
       <c r="Y85" s="14"/>
       <c r="Z85" s="14"/>
       <c r="AA85" s="14">
         <f t="shared" ca="1" si="23"/>
-        <v>3.476</v>
+        <v>3.5379999999999998</v>
       </c>
       <c r="AB85" s="14"/>
       <c r="AC85" s="14"/>
       <c r="AD85" s="11"/>
       <c r="AE85" s="12"/>
-      <c r="AF85" s="30"/>
+      <c r="AF85" s="27"/>
     </row>
     <row r="86" spans="1:32" ht="14.25" customHeight="1">
       <c r="A86" s="116"/>
@@ -6122,54 +6122,54 @@
       </c>
       <c r="D86" s="9"/>
       <c r="E86" s="10"/>
-      <c r="F86" s="18"/>
-      <c r="G86" s="19"/>
-      <c r="H86" s="20"/>
+      <c r="F86" s="28"/>
+      <c r="G86" s="29"/>
+      <c r="H86" s="30"/>
       <c r="I86" s="14">
         <f t="shared" ca="1" si="18"/>
-        <v>3.4469999999999996</v>
+        <v>3.5079999999999996</v>
       </c>
       <c r="J86" s="14"/>
       <c r="K86" s="14"/>
       <c r="L86" s="14">
         <f t="shared" ca="1" si="19"/>
-        <v>3.5379999999999998</v>
+        <v>3.6009999999999995</v>
       </c>
       <c r="M86" s="14"/>
       <c r="N86" s="14"/>
       <c r="O86" s="14">
         <f t="shared" ca="1" si="20"/>
-        <v>3.5779999999999998</v>
+        <v>3.637</v>
       </c>
       <c r="P86" s="14"/>
       <c r="Q86" s="14"/>
       <c r="R86" s="15">
         <f ca="1">Sheet2!E26</f>
-        <v>3.726</v>
+        <v>3.7889999999999997</v>
       </c>
       <c r="S86" s="16"/>
       <c r="T86" s="17"/>
       <c r="U86" s="14">
         <f t="shared" ca="1" si="21"/>
-        <v>3.5760000000000001</v>
+        <v>3.6409999999999996</v>
       </c>
       <c r="V86" s="14"/>
       <c r="W86" s="14"/>
       <c r="X86" s="14">
         <f t="shared" ca="1" si="22"/>
-        <v>3.5379999999999998</v>
+        <v>3.5979999999999999</v>
       </c>
       <c r="Y86" s="14"/>
       <c r="Z86" s="14"/>
       <c r="AA86" s="14">
         <f t="shared" ca="1" si="23"/>
-        <v>3.4469999999999996</v>
+        <v>3.5069999999999997</v>
       </c>
       <c r="AB86" s="14"/>
       <c r="AC86" s="14"/>
       <c r="AD86" s="11"/>
       <c r="AE86" s="12"/>
-      <c r="AF86" s="30"/>
+      <c r="AF86" s="27"/>
     </row>
     <row r="87" spans="1:32" ht="14.25" customHeight="1">
       <c r="A87" s="116"/>
@@ -6184,49 +6184,49 @@
       <c r="H87" s="14"/>
       <c r="I87" s="14">
         <f t="shared" ca="1" si="18"/>
-        <v>3.3899999999999997</v>
+        <v>3.4529999999999998</v>
       </c>
       <c r="J87" s="14"/>
       <c r="K87" s="14"/>
       <c r="L87" s="14">
         <f t="shared" ca="1" si="19"/>
-        <v>3.48</v>
+        <v>3.5419999999999998</v>
       </c>
       <c r="M87" s="14"/>
       <c r="N87" s="14"/>
       <c r="O87" s="14">
         <f t="shared" ca="1" si="20"/>
-        <v>3.52</v>
+        <v>3.58</v>
       </c>
       <c r="P87" s="14"/>
       <c r="Q87" s="14"/>
       <c r="R87" s="15">
         <f ca="1">Sheet2!E27</f>
-        <v>3.6719999999999997</v>
+        <v>3.7319999999999998</v>
       </c>
       <c r="S87" s="16"/>
       <c r="T87" s="17"/>
       <c r="U87" s="14">
         <f t="shared" ca="1" si="21"/>
-        <v>3.5209999999999999</v>
+        <v>3.5829999999999997</v>
       </c>
       <c r="V87" s="14"/>
       <c r="W87" s="14"/>
       <c r="X87" s="14">
         <f t="shared" ca="1" si="22"/>
-        <v>3.4809999999999999</v>
+        <v>3.5439999999999996</v>
       </c>
       <c r="Y87" s="14"/>
       <c r="Z87" s="14"/>
       <c r="AA87" s="14">
         <f t="shared" ca="1" si="23"/>
-        <v>3.3939999999999992</v>
+        <v>3.45</v>
       </c>
       <c r="AB87" s="14"/>
       <c r="AC87" s="14"/>
       <c r="AD87" s="11"/>
       <c r="AE87" s="12"/>
-      <c r="AF87" s="30"/>
+      <c r="AF87" s="27"/>
     </row>
     <row r="88" spans="1:32" ht="14.25" customHeight="1">
       <c r="A88" s="116"/>
@@ -6241,49 +6241,49 @@
       <c r="H88" s="14"/>
       <c r="I88" s="14">
         <f t="shared" ca="1" si="18"/>
-        <v>3.3140000000000001</v>
+        <v>3.3799999999999994</v>
       </c>
       <c r="J88" s="14"/>
       <c r="K88" s="14"/>
       <c r="L88" s="14">
         <f t="shared" ca="1" si="19"/>
-        <v>3.4060000000000001</v>
+        <v>3.4670000000000001</v>
       </c>
       <c r="M88" s="14"/>
       <c r="N88" s="14"/>
       <c r="O88" s="14">
         <f t="shared" ca="1" si="20"/>
-        <v>3.4460000000000002</v>
+        <v>3.5109999999999997</v>
       </c>
       <c r="P88" s="14"/>
       <c r="Q88" s="14"/>
       <c r="R88" s="15">
         <f ca="1">Sheet2!E28</f>
-        <v>3.5960000000000001</v>
+        <v>3.6589999999999998</v>
       </c>
       <c r="S88" s="16"/>
       <c r="T88" s="17"/>
       <c r="U88" s="14">
         <f t="shared" ca="1" si="21"/>
-        <v>3.4440000000000004</v>
+        <v>3.51</v>
       </c>
       <c r="V88" s="14"/>
       <c r="W88" s="14"/>
       <c r="X88" s="14">
         <f t="shared" ca="1" si="22"/>
-        <v>3.4050000000000002</v>
+        <v>3.4709999999999996</v>
       </c>
       <c r="Y88" s="14"/>
       <c r="Z88" s="14"/>
       <c r="AA88" s="14">
         <f t="shared" ca="1" si="23"/>
-        <v>3.3169999999999997</v>
+        <v>3.3779999999999997</v>
       </c>
       <c r="AB88" s="14"/>
       <c r="AC88" s="14"/>
       <c r="AD88" s="11"/>
       <c r="AE88" s="12"/>
-      <c r="AF88" s="30"/>
+      <c r="AF88" s="27"/>
     </row>
     <row r="89" spans="1:32" ht="14.25" customHeight="1">
       <c r="A89" s="116"/>
@@ -6298,49 +6298,49 @@
       <c r="H89" s="14"/>
       <c r="I89" s="14">
         <f t="shared" ca="1" si="18"/>
-        <v>3.2479999999999998</v>
+        <v>3.3140000000000001</v>
       </c>
       <c r="J89" s="14"/>
       <c r="K89" s="14"/>
       <c r="L89" s="14">
         <f t="shared" ca="1" si="19"/>
-        <v>3.3380000000000001</v>
+        <v>3.4010000000000002</v>
       </c>
       <c r="M89" s="14"/>
       <c r="N89" s="14"/>
       <c r="O89" s="14">
         <f t="shared" ca="1" si="20"/>
-        <v>3.38</v>
+        <v>3.4400000000000004</v>
       </c>
       <c r="P89" s="14"/>
       <c r="Q89" s="14"/>
       <c r="R89" s="15">
         <f ca="1">Sheet2!E29</f>
-        <v>3.5289999999999999</v>
+        <v>3.5920000000000001</v>
       </c>
       <c r="S89" s="16"/>
       <c r="T89" s="17"/>
       <c r="U89" s="14">
         <f t="shared" ca="1" si="21"/>
-        <v>3.379</v>
+        <v>3.4400000000000004</v>
       </c>
       <c r="V89" s="14"/>
       <c r="W89" s="14"/>
       <c r="X89" s="14">
         <f t="shared" ca="1" si="22"/>
-        <v>3.34</v>
+        <v>3.403</v>
       </c>
       <c r="Y89" s="14"/>
       <c r="Z89" s="14"/>
       <c r="AA89" s="14">
         <f t="shared" ca="1" si="23"/>
-        <v>3.2479999999999998</v>
+        <v>3.3110000000000004</v>
       </c>
       <c r="AB89" s="14"/>
       <c r="AC89" s="14"/>
       <c r="AD89" s="11"/>
       <c r="AE89" s="12"/>
-      <c r="AF89" s="30"/>
+      <c r="AF89" s="27"/>
     </row>
     <row r="90" spans="1:32" ht="14.25" customHeight="1">
       <c r="A90" s="77"/>
@@ -6355,49 +6355,49 @@
       <c r="H90" s="14"/>
       <c r="I90" s="14">
         <f t="shared" ca="1" si="18"/>
-        <v>3.1909999999999998</v>
+        <v>3.2519999999999993</v>
       </c>
       <c r="J90" s="14"/>
       <c r="K90" s="14"/>
       <c r="L90" s="14">
         <f t="shared" ca="1" si="19"/>
-        <v>3.2839999999999998</v>
+        <v>3.3419999999999996</v>
       </c>
       <c r="M90" s="14"/>
       <c r="N90" s="14"/>
       <c r="O90" s="14">
         <f t="shared" ca="1" si="20"/>
-        <v>3.3210000000000002</v>
+        <v>3.3809999999999998</v>
       </c>
       <c r="P90" s="14"/>
       <c r="Q90" s="14"/>
       <c r="R90" s="15">
         <f ca="1">Sheet2!E30</f>
-        <v>3.4729999999999999</v>
+        <v>3.5309999999999997</v>
       </c>
       <c r="S90" s="16"/>
       <c r="T90" s="17"/>
       <c r="U90" s="14">
         <f t="shared" ca="1" si="21"/>
-        <v>3.323</v>
+        <v>3.3819999999999997</v>
       </c>
       <c r="V90" s="14"/>
       <c r="W90" s="14"/>
       <c r="X90" s="14">
         <f t="shared" ca="1" si="22"/>
-        <v>3.282</v>
+        <v>3.34</v>
       </c>
       <c r="Y90" s="14"/>
       <c r="Z90" s="14"/>
       <c r="AA90" s="14">
         <f t="shared" ca="1" si="23"/>
-        <v>3.1909999999999998</v>
+        <v>3.2509999999999994</v>
       </c>
       <c r="AB90" s="14"/>
       <c r="AC90" s="14"/>
       <c r="AD90" s="11"/>
       <c r="AE90" s="12"/>
-      <c r="AF90" s="30"/>
+      <c r="AF90" s="27"/>
     </row>
     <row r="91" spans="1:32" ht="14.25" customHeight="1">
       <c r="A91" s="77"/>
@@ -6412,49 +6412,49 @@
       <c r="H91" s="14"/>
       <c r="I91" s="14">
         <f t="shared" ca="1" si="18"/>
-        <v>3.1620000000000004</v>
+        <v>3.2210000000000001</v>
       </c>
       <c r="J91" s="14"/>
       <c r="K91" s="14"/>
       <c r="L91" s="14">
         <f t="shared" ca="1" si="19"/>
-        <v>3.254</v>
+        <v>3.3070000000000004</v>
       </c>
       <c r="M91" s="14"/>
       <c r="N91" s="14"/>
       <c r="O91" s="14">
         <f t="shared" ca="1" si="20"/>
-        <v>3.2910000000000004</v>
+        <v>3.351</v>
       </c>
       <c r="P91" s="14"/>
       <c r="Q91" s="14"/>
       <c r="R91" s="15">
         <f ca="1">Sheet2!E31</f>
-        <v>3.4430000000000001</v>
+        <v>3.4990000000000001</v>
       </c>
       <c r="S91" s="16"/>
       <c r="T91" s="17"/>
       <c r="U91" s="14">
         <f t="shared" ca="1" si="21"/>
-        <v>3.2920000000000003</v>
+        <v>3.3470000000000004</v>
       </c>
       <c r="V91" s="14"/>
       <c r="W91" s="14"/>
       <c r="X91" s="14">
         <f t="shared" ca="1" si="22"/>
-        <v>3.2549999999999999</v>
+        <v>3.3090000000000002</v>
       </c>
       <c r="Y91" s="14"/>
       <c r="Z91" s="14"/>
       <c r="AA91" s="14">
         <f t="shared" ca="1" si="23"/>
-        <v>3.1610000000000005</v>
+        <v>3.2170000000000005</v>
       </c>
       <c r="AB91" s="14"/>
       <c r="AC91" s="14"/>
       <c r="AD91" s="11"/>
       <c r="AE91" s="12"/>
-      <c r="AF91" s="30"/>
+      <c r="AF91" s="27"/>
     </row>
     <row r="92" spans="1:32">
       <c r="A92" s="77"/>
@@ -6469,49 +6469,49 @@
       <c r="H92" s="14"/>
       <c r="I92" s="14">
         <f t="shared" ca="1" si="18"/>
-        <v>3.1579999999999999</v>
+        <v>3.2159999999999997</v>
       </c>
       <c r="J92" s="14"/>
       <c r="K92" s="14"/>
       <c r="L92" s="14">
         <f t="shared" ca="1" si="19"/>
-        <v>3.2469999999999999</v>
+        <v>3.3050000000000002</v>
       </c>
       <c r="M92" s="14"/>
       <c r="N92" s="14"/>
       <c r="O92" s="14">
         <f t="shared" ca="1" si="20"/>
-        <v>3.2879999999999998</v>
+        <v>3.3430000000000004</v>
       </c>
       <c r="P92" s="14"/>
       <c r="Q92" s="14"/>
       <c r="R92" s="15">
         <f ca="1">Sheet2!E32</f>
-        <v>3.4369999999999998</v>
+        <v>3.4950000000000001</v>
       </c>
       <c r="S92" s="16"/>
       <c r="T92" s="17"/>
       <c r="U92" s="14">
         <f t="shared" ca="1" si="21"/>
-        <v>3.2850000000000001</v>
+        <v>3.3430000000000004</v>
       </c>
       <c r="V92" s="14"/>
       <c r="W92" s="14"/>
       <c r="X92" s="14">
         <f t="shared" ca="1" si="22"/>
-        <v>3.2479999999999998</v>
+        <v>3.3050000000000002</v>
       </c>
       <c r="Y92" s="14"/>
       <c r="Z92" s="14"/>
       <c r="AA92" s="14">
         <f t="shared" ca="1" si="23"/>
-        <v>3.1560000000000001</v>
+        <v>3.214</v>
       </c>
       <c r="AB92" s="14"/>
       <c r="AC92" s="14"/>
       <c r="AD92" s="11"/>
       <c r="AE92" s="12"/>
-      <c r="AF92" s="30"/>
+      <c r="AF92" s="27"/>
     </row>
     <row r="93" spans="1:32" ht="14.25" customHeight="1">
       <c r="A93" s="77"/>
@@ -6561,7 +6561,7 @@
       <c r="AC93" s="13"/>
       <c r="AD93" s="11"/>
       <c r="AE93" s="12"/>
-      <c r="AF93" s="30"/>
+      <c r="AF93" s="27"/>
     </row>
     <row r="94" spans="1:32">
       <c r="A94" s="77"/>
@@ -6574,48 +6574,48 @@
       <c r="F94" s="14"/>
       <c r="G94" s="14"/>
       <c r="H94" s="14"/>
-      <c r="I94" s="18">
+      <c r="I94" s="28">
         <f ca="1">R94-(16.5*2%)+RANDBETWEEN(-2,2)*0.001</f>
-        <v>3.1889999999999996</v>
-      </c>
-      <c r="J94" s="19"/>
-      <c r="K94" s="20"/>
-      <c r="L94" s="18">
+        <v>3.2469999999999999</v>
+      </c>
+      <c r="J94" s="29"/>
+      <c r="K94" s="30"/>
+      <c r="L94" s="28">
         <f ca="1">R94-(12*2%)+RANDBETWEEN(-2,2)*0.001</f>
-        <v>3.2809999999999997</v>
-      </c>
-      <c r="M94" s="19"/>
-      <c r="N94" s="20"/>
-      <c r="O94" s="18">
+        <v>3.335</v>
+      </c>
+      <c r="M94" s="29"/>
+      <c r="N94" s="30"/>
+      <c r="O94" s="28">
         <f ca="1">R94-(10*2%)+RANDBETWEEN(-2,2)*0.001</f>
-        <v>3.3189999999999995</v>
-      </c>
-      <c r="P94" s="19"/>
-      <c r="Q94" s="20"/>
+        <v>3.3779999999999997</v>
+      </c>
+      <c r="P94" s="29"/>
+      <c r="Q94" s="30"/>
       <c r="R94" s="123">
         <f ca="1">Sheet2!E34</f>
-        <v>3.5189999999999997</v>
+        <v>3.577</v>
       </c>
       <c r="S94" s="124"/>
       <c r="T94" s="125"/>
-      <c r="U94" s="18">
+      <c r="U94" s="28">
         <f ca="1">R94-(9.5*2%)+RANDBETWEEN(-2,2)*0.001</f>
-        <v>3.3299999999999996</v>
-      </c>
-      <c r="V94" s="19"/>
-      <c r="W94" s="20"/>
-      <c r="X94" s="18">
+        <v>3.3889999999999998</v>
+      </c>
+      <c r="V94" s="29"/>
+      <c r="W94" s="30"/>
+      <c r="X94" s="28">
         <f ca="1">R94-(11.5*2%)+RANDBETWEEN(-2,2)*0.001</f>
-        <v>3.2899999999999996</v>
-      </c>
-      <c r="Y94" s="19"/>
-      <c r="Z94" s="20"/>
-      <c r="AA94" s="18">
+        <v>3.3489999999999998</v>
+      </c>
+      <c r="Y94" s="29"/>
+      <c r="Z94" s="30"/>
+      <c r="AA94" s="28">
         <f ca="1">R94-(16*2%)+RANDBETWEEN(-2,2)*0.001</f>
-        <v>3.198</v>
-      </c>
-      <c r="AB94" s="19"/>
-      <c r="AC94" s="20"/>
+        <v>3.258</v>
+      </c>
+      <c r="AB94" s="29"/>
+      <c r="AC94" s="30"/>
       <c r="AD94" s="121"/>
       <c r="AE94" s="121"/>
       <c r="AF94" s="122"/>
@@ -6631,48 +6631,48 @@
       <c r="F95" s="14"/>
       <c r="G95" s="14"/>
       <c r="H95" s="14"/>
-      <c r="I95" s="18">
+      <c r="I95" s="28">
         <f ca="1">R95-(16.5*2%)+RANDBETWEEN(-2,2)*0.001</f>
-        <v>3.2679999999999998</v>
-      </c>
-      <c r="J95" s="19"/>
-      <c r="K95" s="20"/>
-      <c r="L95" s="18">
+        <v>3.327</v>
+      </c>
+      <c r="J95" s="29"/>
+      <c r="K95" s="30"/>
+      <c r="L95" s="28">
         <f ca="1">R95-(12*2%)+RANDBETWEEN(-2,2)*0.001</f>
-        <v>3.3559999999999999</v>
-      </c>
-      <c r="M95" s="19"/>
-      <c r="N95" s="20"/>
-      <c r="O95" s="18">
+        <v>3.4170000000000003</v>
+      </c>
+      <c r="M95" s="29"/>
+      <c r="N95" s="30"/>
+      <c r="O95" s="28">
         <f ca="1">R95-(10*2%)+RANDBETWEEN(-2,2)*0.001</f>
-        <v>3.3940000000000001</v>
-      </c>
-      <c r="P95" s="19"/>
-      <c r="Q95" s="20"/>
+        <v>3.4569999999999999</v>
+      </c>
+      <c r="P95" s="29"/>
+      <c r="Q95" s="30"/>
       <c r="R95" s="123">
         <f ca="1">Sheet2!E35</f>
-        <v>3.5960000000000001</v>
+        <v>3.6579999999999999</v>
       </c>
       <c r="S95" s="124"/>
       <c r="T95" s="125"/>
-      <c r="U95" s="18">
+      <c r="U95" s="28">
         <f ca="1">R95-(9.5*2%)+RANDBETWEEN(-2,2)*0.001</f>
-        <v>3.4050000000000002</v>
-      </c>
-      <c r="V95" s="19"/>
-      <c r="W95" s="20"/>
-      <c r="X95" s="18">
+        <v>3.4689999999999999</v>
+      </c>
+      <c r="V95" s="29"/>
+      <c r="W95" s="30"/>
+      <c r="X95" s="28">
         <f ca="1">R95-(11.5*2%)+RANDBETWEEN(-2,2)*0.001</f>
-        <v>3.367</v>
-      </c>
-      <c r="Y95" s="19"/>
-      <c r="Z95" s="20"/>
-      <c r="AA95" s="18">
+        <v>3.4260000000000002</v>
+      </c>
+      <c r="Y95" s="29"/>
+      <c r="Z95" s="30"/>
+      <c r="AA95" s="28">
         <f ca="1">R95-(16*2%)+RANDBETWEEN(-2,2)*0.001</f>
-        <v>3.2750000000000004</v>
-      </c>
-      <c r="AB95" s="19"/>
-      <c r="AC95" s="20"/>
+        <v>3.3380000000000001</v>
+      </c>
+      <c r="AB95" s="29"/>
+      <c r="AC95" s="30"/>
       <c r="AD95" s="121"/>
       <c r="AE95" s="121"/>
       <c r="AF95" s="122"/>
@@ -7211,21 +7211,21 @@
     <row r="111" spans="1:32">
       <c r="A111" s="77"/>
       <c r="B111" s="48"/>
-      <c r="C111" s="21" t="s">
+      <c r="C111" s="18" t="s">
         <v>11</v>
       </c>
-      <c r="D111" s="22"/>
-      <c r="E111" s="22"/>
-      <c r="F111" s="22"/>
+      <c r="D111" s="19"/>
+      <c r="E111" s="19"/>
+      <c r="F111" s="19"/>
       <c r="G111" s="81"/>
-      <c r="H111" s="21" t="s">
+      <c r="H111" s="18" t="s">
         <v>27</v>
       </c>
-      <c r="I111" s="22"/>
-      <c r="J111" s="22"/>
-      <c r="K111" s="22"/>
-      <c r="L111" s="22"/>
-      <c r="M111" s="22"/>
+      <c r="I111" s="19"/>
+      <c r="J111" s="19"/>
+      <c r="K111" s="19"/>
+      <c r="L111" s="19"/>
+      <c r="M111" s="19"/>
       <c r="N111" s="81"/>
       <c r="O111" s="83" t="s">
         <v>12</v>
@@ -7253,17 +7253,17 @@
     <row r="112" spans="1:32" ht="9.75" customHeight="1">
       <c r="A112" s="77"/>
       <c r="B112" s="48"/>
-      <c r="C112" s="27"/>
-      <c r="D112" s="28"/>
-      <c r="E112" s="28"/>
-      <c r="F112" s="28"/>
+      <c r="C112" s="24"/>
+      <c r="D112" s="25"/>
+      <c r="E112" s="25"/>
+      <c r="F112" s="25"/>
       <c r="G112" s="82"/>
-      <c r="H112" s="27"/>
-      <c r="I112" s="28"/>
-      <c r="J112" s="28"/>
-      <c r="K112" s="28"/>
-      <c r="L112" s="28"/>
-      <c r="M112" s="28"/>
+      <c r="H112" s="24"/>
+      <c r="I112" s="25"/>
+      <c r="J112" s="25"/>
+      <c r="K112" s="25"/>
+      <c r="L112" s="25"/>
+      <c r="M112" s="25"/>
       <c r="N112" s="82"/>
       <c r="O112" s="86"/>
       <c r="P112" s="87"/>
@@ -7706,7 +7706,7 @@
       <c r="AC124" s="13"/>
       <c r="AD124" s="11"/>
       <c r="AE124" s="12"/>
-      <c r="AF124" s="30"/>
+      <c r="AF124" s="27"/>
     </row>
     <row r="125" spans="1:32">
       <c r="A125" s="77"/>
@@ -7719,48 +7719,48 @@
       <c r="F125" s="11"/>
       <c r="G125" s="12"/>
       <c r="H125" s="13"/>
-      <c r="I125" s="18">
+      <c r="I125" s="28">
         <f ca="1">R125-(16.5*2%)+RANDBETWEEN(-2,2)*0.001</f>
-        <v>3.3479999999999994</v>
-      </c>
-      <c r="J125" s="19"/>
-      <c r="K125" s="20"/>
-      <c r="L125" s="18">
+        <v>3.4059999999999997</v>
+      </c>
+      <c r="J125" s="29"/>
+      <c r="K125" s="30"/>
+      <c r="L125" s="28">
         <f ca="1">R125-(12*2%)+RANDBETWEEN(-2,2)*0.001</f>
-        <v>3.4379999999999993</v>
-      </c>
-      <c r="M125" s="19"/>
-      <c r="N125" s="20"/>
-      <c r="O125" s="18">
+        <v>3.4959999999999996</v>
+      </c>
+      <c r="M125" s="29"/>
+      <c r="N125" s="30"/>
+      <c r="O125" s="28">
         <f ca="1">R125-(10*2%)+RANDBETWEEN(-2,2)*0.001</f>
-        <v>3.4789999999999992</v>
-      </c>
-      <c r="P125" s="19"/>
-      <c r="Q125" s="20"/>
+        <v>3.5389999999999993</v>
+      </c>
+      <c r="P125" s="29"/>
+      <c r="Q125" s="30"/>
       <c r="R125" s="123">
         <f ca="1">Sheet2!E36</f>
-        <v>3.6769999999999996</v>
+        <v>3.7379999999999995</v>
       </c>
       <c r="S125" s="124"/>
       <c r="T125" s="125"/>
-      <c r="U125" s="18">
+      <c r="U125" s="28">
         <f ca="1">R125-(9.5*2%)+RANDBETWEEN(-2,2)*0.001</f>
-        <v>3.4889999999999994</v>
-      </c>
-      <c r="V125" s="19"/>
-      <c r="W125" s="20"/>
-      <c r="X125" s="18">
+        <v>3.5489999999999995</v>
+      </c>
+      <c r="V125" s="29"/>
+      <c r="W125" s="30"/>
+      <c r="X125" s="28">
         <f ca="1">R125-(11.5*2%)+RANDBETWEEN(-2,2)*0.001</f>
-        <v>3.4459999999999997</v>
-      </c>
-      <c r="Y125" s="19"/>
-      <c r="Z125" s="20"/>
-      <c r="AA125" s="18">
+        <v>3.5089999999999995</v>
+      </c>
+      <c r="Y125" s="29"/>
+      <c r="Z125" s="30"/>
+      <c r="AA125" s="28">
         <f ca="1">R125-(16*2%)+RANDBETWEEN(-2,2)*0.001</f>
-        <v>3.355</v>
-      </c>
-      <c r="AB125" s="19"/>
-      <c r="AC125" s="20"/>
+        <v>3.4189999999999996</v>
+      </c>
+      <c r="AB125" s="29"/>
+      <c r="AC125" s="30"/>
       <c r="AD125" s="121"/>
       <c r="AE125" s="121"/>
       <c r="AF125" s="122"/>
@@ -7776,48 +7776,48 @@
       <c r="F126" s="14"/>
       <c r="G126" s="14"/>
       <c r="H126" s="14"/>
-      <c r="I126" s="18">
+      <c r="I126" s="28">
         <f ca="1">R126-(16.5*2%)+RANDBETWEEN(-2,2)*0.001</f>
-        <v>3.407</v>
-      </c>
-      <c r="J126" s="19"/>
-      <c r="K126" s="20"/>
-      <c r="L126" s="18">
+        <v>3.464</v>
+      </c>
+      <c r="J126" s="29"/>
+      <c r="K126" s="30"/>
+      <c r="L126" s="28">
         <f ca="1">R126-(12*2%)+RANDBETWEEN(-2,2)*0.001</f>
-        <v>3.4980000000000002</v>
-      </c>
-      <c r="M126" s="19"/>
-      <c r="N126" s="20"/>
-      <c r="O126" s="18">
+        <v>3.556</v>
+      </c>
+      <c r="M126" s="29"/>
+      <c r="N126" s="30"/>
+      <c r="O126" s="28">
         <f ca="1">R126-(10*2%)+RANDBETWEEN(-2,2)*0.001</f>
-        <v>3.5399999999999996</v>
-      </c>
-      <c r="P126" s="19"/>
-      <c r="Q126" s="20"/>
+        <v>3.5949999999999998</v>
+      </c>
+      <c r="P126" s="29"/>
+      <c r="Q126" s="30"/>
       <c r="R126" s="123">
         <f ca="1">Sheet2!E37</f>
-        <v>3.738</v>
+        <v>3.794</v>
       </c>
       <c r="S126" s="124"/>
       <c r="T126" s="125"/>
-      <c r="U126" s="18">
+      <c r="U126" s="28">
         <f ca="1">R126-(9.5*2%)+RANDBETWEEN(-2,2)*0.001</f>
-        <v>3.5470000000000002</v>
-      </c>
-      <c r="V126" s="19"/>
-      <c r="W126" s="20"/>
-      <c r="X126" s="18">
+        <v>3.6059999999999999</v>
+      </c>
+      <c r="V126" s="29"/>
+      <c r="W126" s="30"/>
+      <c r="X126" s="28">
         <f ca="1">R126-(11.5*2%)+RANDBETWEEN(-2,2)*0.001</f>
-        <v>3.5060000000000002</v>
-      </c>
-      <c r="Y126" s="19"/>
-      <c r="Z126" s="20"/>
-      <c r="AA126" s="18">
+        <v>3.5659999999999998</v>
+      </c>
+      <c r="Y126" s="29"/>
+      <c r="Z126" s="30"/>
+      <c r="AA126" s="28">
         <f ca="1">R126-(16*2%)+RANDBETWEEN(-2,2)*0.001</f>
-        <v>3.4180000000000001</v>
-      </c>
-      <c r="AB126" s="19"/>
-      <c r="AC126" s="20"/>
+        <v>3.4720000000000004</v>
+      </c>
+      <c r="AB126" s="29"/>
+      <c r="AC126" s="30"/>
       <c r="AD126" s="121"/>
       <c r="AE126" s="121"/>
       <c r="AF126" s="122"/>
@@ -7828,9 +7828,9 @@
       <c r="C127" s="8"/>
       <c r="D127" s="9"/>
       <c r="E127" s="10"/>
-      <c r="F127" s="18"/>
-      <c r="G127" s="19"/>
-      <c r="H127" s="20"/>
+      <c r="F127" s="28"/>
+      <c r="G127" s="29"/>
+      <c r="H127" s="30"/>
       <c r="I127" s="14"/>
       <c r="J127" s="14"/>
       <c r="K127" s="14"/>
@@ -7854,7 +7854,7 @@
       <c r="AC127" s="14"/>
       <c r="AD127" s="11"/>
       <c r="AE127" s="12"/>
-      <c r="AF127" s="30"/>
+      <c r="AF127" s="27"/>
     </row>
     <row r="128" spans="1:32">
       <c r="A128" s="77"/>
@@ -7862,9 +7862,9 @@
       <c r="C128" s="8"/>
       <c r="D128" s="9"/>
       <c r="E128" s="10"/>
-      <c r="F128" s="18"/>
-      <c r="G128" s="19"/>
-      <c r="H128" s="20"/>
+      <c r="F128" s="28"/>
+      <c r="G128" s="29"/>
+      <c r="H128" s="30"/>
       <c r="I128" s="14"/>
       <c r="J128" s="14"/>
       <c r="K128" s="14"/>
@@ -7888,7 +7888,7 @@
       <c r="AC128" s="14"/>
       <c r="AD128" s="11"/>
       <c r="AE128" s="12"/>
-      <c r="AF128" s="30"/>
+      <c r="AF128" s="27"/>
     </row>
     <row r="129" spans="1:32">
       <c r="A129" s="77"/>
@@ -7896,33 +7896,33 @@
       <c r="C129" s="8"/>
       <c r="D129" s="9"/>
       <c r="E129" s="10"/>
-      <c r="F129" s="18"/>
-      <c r="G129" s="19"/>
-      <c r="H129" s="20"/>
-      <c r="I129" s="18"/>
-      <c r="J129" s="19"/>
-      <c r="K129" s="20"/>
-      <c r="L129" s="18"/>
-      <c r="M129" s="19"/>
-      <c r="N129" s="20"/>
-      <c r="O129" s="18"/>
-      <c r="P129" s="19"/>
-      <c r="Q129" s="20"/>
+      <c r="F129" s="28"/>
+      <c r="G129" s="29"/>
+      <c r="H129" s="30"/>
+      <c r="I129" s="28"/>
+      <c r="J129" s="29"/>
+      <c r="K129" s="30"/>
+      <c r="L129" s="28"/>
+      <c r="M129" s="29"/>
+      <c r="N129" s="30"/>
+      <c r="O129" s="28"/>
+      <c r="P129" s="29"/>
+      <c r="Q129" s="30"/>
       <c r="R129" s="15"/>
       <c r="S129" s="16"/>
       <c r="T129" s="17"/>
       <c r="U129" s="14"/>
       <c r="V129" s="14"/>
       <c r="W129" s="14"/>
-      <c r="X129" s="18"/>
-      <c r="Y129" s="19"/>
-      <c r="Z129" s="20"/>
-      <c r="AA129" s="18"/>
-      <c r="AB129" s="19"/>
-      <c r="AC129" s="20"/>
+      <c r="X129" s="28"/>
+      <c r="Y129" s="29"/>
+      <c r="Z129" s="30"/>
+      <c r="AA129" s="28"/>
+      <c r="AB129" s="29"/>
+      <c r="AC129" s="30"/>
       <c r="AD129" s="11"/>
       <c r="AE129" s="12"/>
-      <c r="AF129" s="30"/>
+      <c r="AF129" s="27"/>
     </row>
     <row r="130" spans="1:32">
       <c r="A130" s="77"/>
@@ -7930,33 +7930,33 @@
       <c r="C130" s="8"/>
       <c r="D130" s="9"/>
       <c r="E130" s="10"/>
-      <c r="F130" s="18"/>
-      <c r="G130" s="19"/>
-      <c r="H130" s="20"/>
-      <c r="I130" s="18"/>
-      <c r="J130" s="19"/>
-      <c r="K130" s="20"/>
-      <c r="L130" s="18"/>
-      <c r="M130" s="19"/>
-      <c r="N130" s="20"/>
-      <c r="O130" s="18"/>
-      <c r="P130" s="19"/>
-      <c r="Q130" s="20"/>
+      <c r="F130" s="28"/>
+      <c r="G130" s="29"/>
+      <c r="H130" s="30"/>
+      <c r="I130" s="28"/>
+      <c r="J130" s="29"/>
+      <c r="K130" s="30"/>
+      <c r="L130" s="28"/>
+      <c r="M130" s="29"/>
+      <c r="N130" s="30"/>
+      <c r="O130" s="28"/>
+      <c r="P130" s="29"/>
+      <c r="Q130" s="30"/>
       <c r="R130" s="15"/>
       <c r="S130" s="16"/>
       <c r="T130" s="17"/>
-      <c r="U130" s="18"/>
-      <c r="V130" s="19"/>
-      <c r="W130" s="20"/>
-      <c r="X130" s="18"/>
-      <c r="Y130" s="19"/>
-      <c r="Z130" s="20"/>
-      <c r="AA130" s="18"/>
-      <c r="AB130" s="19"/>
-      <c r="AC130" s="20"/>
+      <c r="U130" s="28"/>
+      <c r="V130" s="29"/>
+      <c r="W130" s="30"/>
+      <c r="X130" s="28"/>
+      <c r="Y130" s="29"/>
+      <c r="Z130" s="30"/>
+      <c r="AA130" s="28"/>
+      <c r="AB130" s="29"/>
+      <c r="AC130" s="30"/>
       <c r="AD130" s="11"/>
       <c r="AE130" s="12"/>
-      <c r="AF130" s="30"/>
+      <c r="AF130" s="27"/>
     </row>
     <row r="131" spans="1:32">
       <c r="A131" s="77"/>
@@ -7964,33 +7964,33 @@
       <c r="C131" s="8"/>
       <c r="D131" s="9"/>
       <c r="E131" s="10"/>
-      <c r="F131" s="18"/>
-      <c r="G131" s="19"/>
-      <c r="H131" s="20"/>
-      <c r="I131" s="18"/>
-      <c r="J131" s="19"/>
-      <c r="K131" s="20"/>
-      <c r="L131" s="18"/>
-      <c r="M131" s="19"/>
-      <c r="N131" s="20"/>
-      <c r="O131" s="18"/>
-      <c r="P131" s="19"/>
-      <c r="Q131" s="20"/>
+      <c r="F131" s="28"/>
+      <c r="G131" s="29"/>
+      <c r="H131" s="30"/>
+      <c r="I131" s="28"/>
+      <c r="J131" s="29"/>
+      <c r="K131" s="30"/>
+      <c r="L131" s="28"/>
+      <c r="M131" s="29"/>
+      <c r="N131" s="30"/>
+      <c r="O131" s="28"/>
+      <c r="P131" s="29"/>
+      <c r="Q131" s="30"/>
       <c r="R131" s="15"/>
       <c r="S131" s="16"/>
       <c r="T131" s="17"/>
-      <c r="U131" s="18"/>
-      <c r="V131" s="19"/>
-      <c r="W131" s="20"/>
-      <c r="X131" s="18"/>
-      <c r="Y131" s="19"/>
-      <c r="Z131" s="20"/>
-      <c r="AA131" s="18"/>
-      <c r="AB131" s="19"/>
-      <c r="AC131" s="20"/>
+      <c r="U131" s="28"/>
+      <c r="V131" s="29"/>
+      <c r="W131" s="30"/>
+      <c r="X131" s="28"/>
+      <c r="Y131" s="29"/>
+      <c r="Z131" s="30"/>
+      <c r="AA131" s="28"/>
+      <c r="AB131" s="29"/>
+      <c r="AC131" s="30"/>
       <c r="AD131" s="11"/>
       <c r="AE131" s="12"/>
-      <c r="AF131" s="30"/>
+      <c r="AF131" s="27"/>
     </row>
     <row r="132" spans="1:32">
       <c r="A132" s="116"/>
@@ -7998,33 +7998,33 @@
       <c r="C132" s="8"/>
       <c r="D132" s="9"/>
       <c r="E132" s="10"/>
-      <c r="F132" s="18"/>
-      <c r="G132" s="19"/>
-      <c r="H132" s="20"/>
-      <c r="I132" s="18"/>
-      <c r="J132" s="19"/>
-      <c r="K132" s="20"/>
-      <c r="L132" s="18"/>
-      <c r="M132" s="19"/>
-      <c r="N132" s="20"/>
-      <c r="O132" s="18"/>
-      <c r="P132" s="19"/>
-      <c r="Q132" s="20"/>
+      <c r="F132" s="28"/>
+      <c r="G132" s="29"/>
+      <c r="H132" s="30"/>
+      <c r="I132" s="28"/>
+      <c r="J132" s="29"/>
+      <c r="K132" s="30"/>
+      <c r="L132" s="28"/>
+      <c r="M132" s="29"/>
+      <c r="N132" s="30"/>
+      <c r="O132" s="28"/>
+      <c r="P132" s="29"/>
+      <c r="Q132" s="30"/>
       <c r="R132" s="15"/>
       <c r="S132" s="16"/>
       <c r="T132" s="17"/>
-      <c r="U132" s="18"/>
-      <c r="V132" s="19"/>
-      <c r="W132" s="20"/>
-      <c r="X132" s="18"/>
-      <c r="Y132" s="19"/>
-      <c r="Z132" s="20"/>
-      <c r="AA132" s="18"/>
-      <c r="AB132" s="19"/>
-      <c r="AC132" s="20"/>
+      <c r="U132" s="28"/>
+      <c r="V132" s="29"/>
+      <c r="W132" s="30"/>
+      <c r="X132" s="28"/>
+      <c r="Y132" s="29"/>
+      <c r="Z132" s="30"/>
+      <c r="AA132" s="28"/>
+      <c r="AB132" s="29"/>
+      <c r="AC132" s="30"/>
       <c r="AD132" s="11"/>
       <c r="AE132" s="12"/>
-      <c r="AF132" s="30"/>
+      <c r="AF132" s="27"/>
     </row>
     <row r="133" spans="1:32">
       <c r="A133" s="116"/>
@@ -8032,33 +8032,33 @@
       <c r="C133" s="8"/>
       <c r="D133" s="9"/>
       <c r="E133" s="10"/>
-      <c r="F133" s="18"/>
-      <c r="G133" s="19"/>
-      <c r="H133" s="20"/>
-      <c r="I133" s="18"/>
-      <c r="J133" s="19"/>
-      <c r="K133" s="20"/>
-      <c r="L133" s="18"/>
-      <c r="M133" s="19"/>
-      <c r="N133" s="20"/>
-      <c r="O133" s="18"/>
-      <c r="P133" s="19"/>
-      <c r="Q133" s="20"/>
+      <c r="F133" s="28"/>
+      <c r="G133" s="29"/>
+      <c r="H133" s="30"/>
+      <c r="I133" s="28"/>
+      <c r="J133" s="29"/>
+      <c r="K133" s="30"/>
+      <c r="L133" s="28"/>
+      <c r="M133" s="29"/>
+      <c r="N133" s="30"/>
+      <c r="O133" s="28"/>
+      <c r="P133" s="29"/>
+      <c r="Q133" s="30"/>
       <c r="R133" s="15"/>
       <c r="S133" s="16"/>
       <c r="T133" s="17"/>
-      <c r="U133" s="18"/>
-      <c r="V133" s="19"/>
-      <c r="W133" s="20"/>
-      <c r="X133" s="18"/>
-      <c r="Y133" s="19"/>
-      <c r="Z133" s="20"/>
-      <c r="AA133" s="18"/>
-      <c r="AB133" s="19"/>
-      <c r="AC133" s="20"/>
+      <c r="U133" s="28"/>
+      <c r="V133" s="29"/>
+      <c r="W133" s="30"/>
+      <c r="X133" s="28"/>
+      <c r="Y133" s="29"/>
+      <c r="Z133" s="30"/>
+      <c r="AA133" s="28"/>
+      <c r="AB133" s="29"/>
+      <c r="AC133" s="30"/>
       <c r="AD133" s="11"/>
       <c r="AE133" s="12"/>
-      <c r="AF133" s="30"/>
+      <c r="AF133" s="27"/>
     </row>
     <row r="134" spans="1:32">
       <c r="A134" s="116"/>
@@ -8092,7 +8092,7 @@
       <c r="AC134" s="14"/>
       <c r="AD134" s="11"/>
       <c r="AE134" s="12"/>
-      <c r="AF134" s="30"/>
+      <c r="AF134" s="27"/>
     </row>
     <row r="135" spans="1:32">
       <c r="A135" s="116"/>
@@ -8126,7 +8126,7 @@
       <c r="AC135" s="14"/>
       <c r="AD135" s="11"/>
       <c r="AE135" s="12"/>
-      <c r="AF135" s="30"/>
+      <c r="AF135" s="27"/>
     </row>
     <row r="136" spans="1:32">
       <c r="A136" s="116"/>
@@ -8160,7 +8160,7 @@
       <c r="AC136" s="14"/>
       <c r="AD136" s="11"/>
       <c r="AE136" s="12"/>
-      <c r="AF136" s="30"/>
+      <c r="AF136" s="27"/>
     </row>
     <row r="137" spans="1:32">
       <c r="A137" s="77"/>
@@ -8194,7 +8194,7 @@
       <c r="AC137" s="14"/>
       <c r="AD137" s="11"/>
       <c r="AE137" s="12"/>
-      <c r="AF137" s="30"/>
+      <c r="AF137" s="27"/>
     </row>
     <row r="138" spans="1:32">
       <c r="A138" s="77"/>
@@ -8228,7 +8228,7 @@
       <c r="AC138" s="14"/>
       <c r="AD138" s="11"/>
       <c r="AE138" s="12"/>
-      <c r="AF138" s="30"/>
+      <c r="AF138" s="27"/>
     </row>
     <row r="139" spans="1:32">
       <c r="A139" s="77"/>
@@ -8262,7 +8262,7 @@
       <c r="AC139" s="14"/>
       <c r="AD139" s="11"/>
       <c r="AE139" s="12"/>
-      <c r="AF139" s="30"/>
+      <c r="AF139" s="27"/>
     </row>
     <row r="140" spans="1:32">
       <c r="A140" s="77"/>
@@ -8296,7 +8296,7 @@
       <c r="AC140" s="14"/>
       <c r="AD140" s="11"/>
       <c r="AE140" s="12"/>
-      <c r="AF140" s="30"/>
+      <c r="AF140" s="27"/>
     </row>
     <row r="141" spans="1:32">
       <c r="A141" s="77"/>
@@ -9297,8 +9297,8 @@
   <sheetPr codeName="Sheet3"/>
   <dimension ref="A1:G49"/>
   <sheetViews>
-    <sheetView topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="B38" sqref="B38"/>
+    <sheetView tabSelected="1" topLeftCell="A24" workbookViewId="0">
+      <selection activeCell="C1" sqref="C1:C37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
@@ -9317,19 +9317,19 @@
         <v>4.3280000000000003</v>
       </c>
       <c r="C1" s="6">
-        <v>0.1</v>
+        <v>0.04</v>
       </c>
       <c r="D1" s="6">
         <f t="shared" ref="D1:D37" si="0">B1-C1</f>
-        <v>4.2280000000000006</v>
+        <v>4.2880000000000003</v>
       </c>
       <c r="E1" s="4">
         <f ca="1">D1+G1</f>
-        <v>4.2300000000000004</v>
+        <v>4.2880000000000003</v>
       </c>
       <c r="G1">
         <f ca="1">RANDBETWEEN(-4,4)*0.001</f>
-        <v>2E-3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="2" spans="1:7" ht="18.75">
@@ -9340,19 +9340,19 @@
         <v>4.2430000000000003</v>
       </c>
       <c r="C2" s="6">
-        <v>0.1</v>
+        <v>0.04</v>
       </c>
       <c r="D2" s="6">
         <f t="shared" si="0"/>
-        <v>4.1430000000000007</v>
+        <v>4.2030000000000003</v>
       </c>
       <c r="E2" s="4">
         <f t="shared" ref="E2:E37" ca="1" si="1">D2+G2</f>
-        <v>4.1390000000000011</v>
+        <v>4.2040000000000006</v>
       </c>
       <c r="G2">
         <f t="shared" ref="G2:G37" ca="1" si="2">RANDBETWEEN(-4,4)*0.001</f>
-        <v>-4.0000000000000001E-3</v>
+        <v>1E-3</v>
       </c>
     </row>
     <row r="3" spans="1:7" ht="18.75">
@@ -9363,25 +9363,27 @@
         <v>4.1520000000000001</v>
       </c>
       <c r="C3" s="6">
-        <v>0.1</v>
+        <v>0.04</v>
       </c>
       <c r="D3" s="6">
         <f t="shared" si="0"/>
-        <v>4.0520000000000005</v>
+        <v>4.1120000000000001</v>
       </c>
       <c r="E3" s="4">
         <f t="shared" ca="1" si="1"/>
-        <v>4.0540000000000003</v>
+        <v>4.1150000000000002</v>
       </c>
       <c r="G3">
         <f t="shared" ca="1" si="2"/>
-        <v>2E-3</v>
+        <v>3.0000000000000001E-3</v>
       </c>
     </row>
     <row r="4" spans="1:7" ht="18.75">
       <c r="A4" s="5"/>
       <c r="B4" s="6"/>
-      <c r="C4" s="6"/>
+      <c r="C4" s="6">
+        <v>0.04</v>
+      </c>
       <c r="D4" s="6"/>
       <c r="E4" s="4"/>
     </row>
@@ -9393,19 +9395,19 @@
         <v>3.86</v>
       </c>
       <c r="C5" s="6">
-        <v>0.1</v>
+        <v>0.04</v>
       </c>
       <c r="D5" s="6">
         <f t="shared" si="0"/>
-        <v>3.76</v>
+        <v>3.82</v>
       </c>
       <c r="E5" s="4">
         <f t="shared" ca="1" si="1"/>
-        <v>3.758</v>
+        <v>3.8239999999999998</v>
       </c>
       <c r="G5">
         <f t="shared" ca="1" si="2"/>
-        <v>-2E-3</v>
+        <v>4.0000000000000001E-3</v>
       </c>
     </row>
     <row r="6" spans="1:7" ht="22.5" customHeight="1">
@@ -9416,19 +9418,19 @@
         <v>3.7850000000000001</v>
       </c>
       <c r="C6" s="6">
-        <v>0.1</v>
+        <v>0.04</v>
       </c>
       <c r="D6" s="6">
         <f t="shared" si="0"/>
-        <v>3.6850000000000001</v>
+        <v>3.7450000000000001</v>
       </c>
       <c r="E6" s="4">
         <f t="shared" ca="1" si="1"/>
-        <v>3.6869999999999998</v>
+        <v>3.7440000000000002</v>
       </c>
       <c r="G6">
         <f t="shared" ca="1" si="2"/>
-        <v>2E-3</v>
+        <v>-1E-3</v>
       </c>
     </row>
     <row r="7" spans="1:7" ht="18.75">
@@ -9439,19 +9441,19 @@
         <v>3.6680000000000001</v>
       </c>
       <c r="C7" s="6">
-        <v>0.1</v>
+        <v>0.04</v>
       </c>
       <c r="D7" s="6">
         <f t="shared" si="0"/>
-        <v>3.5680000000000001</v>
+        <v>3.6280000000000001</v>
       </c>
       <c r="E7" s="4">
         <f t="shared" ca="1" si="1"/>
-        <v>3.5660000000000003</v>
+        <v>3.6320000000000001</v>
       </c>
       <c r="G7">
         <f t="shared" ca="1" si="2"/>
-        <v>-2E-3</v>
+        <v>4.0000000000000001E-3</v>
       </c>
     </row>
     <row r="8" spans="1:7" ht="18.75">
@@ -9462,19 +9464,19 @@
         <v>3.5779999999999998</v>
       </c>
       <c r="C8" s="6">
-        <v>0.1</v>
+        <v>0.04</v>
       </c>
       <c r="D8" s="6">
         <f t="shared" si="0"/>
-        <v>3.4779999999999998</v>
+        <v>3.5379999999999998</v>
       </c>
       <c r="E8" s="4">
         <f t="shared" ca="1" si="1"/>
-        <v>3.4789999999999996</v>
+        <v>3.5379999999999998</v>
       </c>
       <c r="G8">
         <f t="shared" ca="1" si="2"/>
-        <v>1E-3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9" spans="1:7" ht="18.75">
@@ -9485,19 +9487,19 @@
         <v>3.5150000000000001</v>
       </c>
       <c r="C9" s="6">
-        <v>0.1</v>
+        <v>0.04</v>
       </c>
       <c r="D9" s="6">
         <f t="shared" si="0"/>
-        <v>3.415</v>
+        <v>3.4750000000000001</v>
       </c>
       <c r="E9" s="4">
         <f t="shared" ca="1" si="1"/>
-        <v>3.4180000000000001</v>
+        <v>3.4710000000000001</v>
       </c>
       <c r="G9">
         <f t="shared" ca="1" si="2"/>
-        <v>3.0000000000000001E-3</v>
+        <v>-4.0000000000000001E-3</v>
       </c>
     </row>
     <row r="10" spans="1:7" ht="18.75">
@@ -9508,19 +9510,19 @@
         <v>3.4780000000000002</v>
       </c>
       <c r="C10" s="6">
-        <v>0.1</v>
+        <v>0.04</v>
       </c>
       <c r="D10" s="6">
         <f t="shared" si="0"/>
-        <v>3.3780000000000001</v>
+        <v>3.4380000000000002</v>
       </c>
       <c r="E10" s="4">
         <f t="shared" ca="1" si="1"/>
-        <v>3.3820000000000001</v>
+        <v>3.44</v>
       </c>
       <c r="G10">
         <f t="shared" ca="1" si="2"/>
-        <v>4.0000000000000001E-3</v>
+        <v>2E-3</v>
       </c>
     </row>
     <row r="11" spans="1:7" ht="18.75">
@@ -9531,19 +9533,19 @@
         <v>3.4580000000000002</v>
       </c>
       <c r="C11" s="6">
-        <v>0.1</v>
+        <v>0.04</v>
       </c>
       <c r="D11" s="6">
         <f t="shared" si="0"/>
-        <v>3.3580000000000001</v>
+        <v>3.4180000000000001</v>
       </c>
       <c r="E11" s="4">
         <f t="shared" ca="1" si="1"/>
-        <v>3.359</v>
+        <v>3.4170000000000003</v>
       </c>
       <c r="G11">
         <f t="shared" ca="1" si="2"/>
-        <v>1E-3</v>
+        <v>-1E-3</v>
       </c>
     </row>
     <row r="12" spans="1:7" ht="18.75">
@@ -9554,19 +9556,19 @@
         <v>3.4380000000000002</v>
       </c>
       <c r="C12" s="6">
-        <v>0.1</v>
+        <v>0.04</v>
       </c>
       <c r="D12" s="6">
         <f t="shared" si="0"/>
-        <v>3.3380000000000001</v>
+        <v>3.3980000000000001</v>
       </c>
       <c r="E12" s="4">
         <f t="shared" ca="1" si="1"/>
-        <v>3.3340000000000001</v>
+        <v>3.399</v>
       </c>
       <c r="G12">
         <f t="shared" ca="1" si="2"/>
-        <v>-4.0000000000000001E-3</v>
+        <v>1E-3</v>
       </c>
     </row>
     <row r="13" spans="1:7" ht="18.75">
@@ -9577,19 +9579,19 @@
         <v>3.4180000000000001</v>
       </c>
       <c r="C13" s="6">
-        <v>0.1</v>
+        <v>0.04</v>
       </c>
       <c r="D13" s="6">
         <f t="shared" si="0"/>
-        <v>3.3180000000000001</v>
+        <v>3.3780000000000001</v>
       </c>
       <c r="E13" s="4">
         <f t="shared" ca="1" si="1"/>
-        <v>3.319</v>
+        <v>3.3740000000000001</v>
       </c>
       <c r="G13">
         <f t="shared" ca="1" si="2"/>
-        <v>1E-3</v>
+        <v>-4.0000000000000001E-3</v>
       </c>
     </row>
     <row r="14" spans="1:7" ht="18.75">
@@ -9600,19 +9602,19 @@
         <v>3.4039999999999999</v>
       </c>
       <c r="C14" s="6">
-        <v>0.1</v>
+        <v>0.04</v>
       </c>
       <c r="D14" s="6">
         <f t="shared" ref="D14" si="3">B14-C14</f>
-        <v>3.3039999999999998</v>
+        <v>3.3639999999999999</v>
       </c>
       <c r="E14" s="4">
         <f t="shared" ref="E14" ca="1" si="4">D14+G14</f>
-        <v>3.3009999999999997</v>
+        <v>3.3659999999999997</v>
       </c>
       <c r="G14">
         <f t="shared" ca="1" si="2"/>
-        <v>-3.0000000000000001E-3</v>
+        <v>2E-3</v>
       </c>
     </row>
     <row r="15" spans="1:7" ht="18.75">
@@ -9623,19 +9625,19 @@
         <v>3.407</v>
       </c>
       <c r="C15" s="6">
-        <v>0.1</v>
+        <v>0.04</v>
       </c>
       <c r="D15" s="6">
         <f t="shared" si="0"/>
-        <v>3.3069999999999999</v>
+        <v>3.367</v>
       </c>
       <c r="E15" s="4">
         <f t="shared" ca="1" si="1"/>
-        <v>3.3039999999999998</v>
+        <v>3.371</v>
       </c>
       <c r="G15">
         <f t="shared" ca="1" si="2"/>
-        <v>-3.0000000000000001E-3</v>
+        <v>4.0000000000000001E-3</v>
       </c>
     </row>
     <row r="16" spans="1:7" ht="18.75">
@@ -9646,19 +9648,19 @@
         <v>3.4279999999999999</v>
       </c>
       <c r="C16" s="6">
-        <v>0.1</v>
+        <v>0.04</v>
       </c>
       <c r="D16" s="6">
         <f t="shared" si="0"/>
-        <v>3.3279999999999998</v>
+        <v>3.3879999999999999</v>
       </c>
       <c r="E16" s="4">
         <f t="shared" ca="1" si="1"/>
-        <v>3.331</v>
+        <v>3.3889999999999998</v>
       </c>
       <c r="G16">
         <f t="shared" ca="1" si="2"/>
-        <v>3.0000000000000001E-3</v>
+        <v>1E-3</v>
       </c>
     </row>
     <row r="17" spans="1:7" ht="18.75">
@@ -9669,19 +9671,19 @@
         <v>3.4660000000000002</v>
       </c>
       <c r="C17" s="6">
-        <v>0.1</v>
+        <v>0.04</v>
       </c>
       <c r="D17" s="6">
         <f t="shared" si="0"/>
-        <v>3.3660000000000001</v>
+        <v>3.4260000000000002</v>
       </c>
       <c r="E17" s="4">
         <f t="shared" ca="1" si="1"/>
-        <v>3.3650000000000002</v>
+        <v>3.423</v>
       </c>
       <c r="G17">
         <f t="shared" ca="1" si="2"/>
-        <v>-1E-3</v>
+        <v>-3.0000000000000001E-3</v>
       </c>
     </row>
     <row r="18" spans="1:7" ht="18.75">
@@ -9692,19 +9694,19 @@
         <v>3.5209999999999999</v>
       </c>
       <c r="C18" s="6">
-        <v>0.1</v>
+        <v>0.04</v>
       </c>
       <c r="D18" s="6">
         <f t="shared" si="0"/>
-        <v>3.4209999999999998</v>
+        <v>3.4809999999999999</v>
       </c>
       <c r="E18" s="4">
         <f t="shared" ca="1" si="1"/>
-        <v>3.419</v>
+        <v>3.484</v>
       </c>
       <c r="G18">
         <f t="shared" ca="1" si="2"/>
-        <v>-2E-3</v>
+        <v>3.0000000000000001E-3</v>
       </c>
     </row>
     <row r="19" spans="1:7" ht="18.75">
@@ -9715,15 +9717,15 @@
         <v>3.59</v>
       </c>
       <c r="C19" s="6">
-        <v>0.1</v>
+        <v>0.04</v>
       </c>
       <c r="D19" s="6">
         <f t="shared" si="0"/>
-        <v>3.4899999999999998</v>
+        <v>3.55</v>
       </c>
       <c r="E19" s="4">
         <f t="shared" ca="1" si="1"/>
-        <v>3.4929999999999999</v>
+        <v>3.5529999999999999</v>
       </c>
       <c r="G19">
         <f t="shared" ca="1" si="2"/>
@@ -9738,19 +9740,19 @@
         <v>3.66</v>
       </c>
       <c r="C20" s="6">
-        <v>0.1</v>
+        <v>0.04</v>
       </c>
       <c r="D20" s="6">
         <f t="shared" si="0"/>
-        <v>3.56</v>
+        <v>3.62</v>
       </c>
       <c r="E20" s="4">
         <f t="shared" ca="1" si="1"/>
-        <v>3.5630000000000002</v>
+        <v>3.617</v>
       </c>
       <c r="G20">
         <f t="shared" ca="1" si="2"/>
-        <v>3.0000000000000001E-3</v>
+        <v>-3.0000000000000001E-3</v>
       </c>
     </row>
     <row r="21" spans="1:7" ht="18.75">
@@ -9761,15 +9763,15 @@
         <v>3.73</v>
       </c>
       <c r="C21" s="6">
-        <v>0.1</v>
+        <v>0.04</v>
       </c>
       <c r="D21" s="6">
         <f t="shared" si="0"/>
-        <v>3.63</v>
+        <v>3.69</v>
       </c>
       <c r="E21" s="4">
         <f t="shared" ca="1" si="1"/>
-        <v>3.629</v>
+        <v>3.6890000000000001</v>
       </c>
       <c r="G21">
         <f t="shared" ca="1" si="2"/>
@@ -9784,19 +9786,19 @@
         <v>3.7989999999999999</v>
       </c>
       <c r="C22" s="6">
-        <v>0.1</v>
+        <v>0.04</v>
       </c>
       <c r="D22" s="6">
         <f t="shared" si="0"/>
-        <v>3.6989999999999998</v>
+        <v>3.7589999999999999</v>
       </c>
       <c r="E22" s="4">
         <f t="shared" ca="1" si="1"/>
-        <v>3.698</v>
+        <v>3.7559999999999998</v>
       </c>
       <c r="G22">
         <f t="shared" ca="1" si="2"/>
-        <v>-1E-3</v>
+        <v>-3.0000000000000001E-3</v>
       </c>
     </row>
     <row r="23" spans="1:7" ht="18.75">
@@ -9807,19 +9809,19 @@
         <v>3.8460000000000001</v>
       </c>
       <c r="C23" s="6">
-        <v>0.1</v>
+        <v>0.04</v>
       </c>
       <c r="D23" s="6">
         <f t="shared" si="0"/>
-        <v>3.746</v>
+        <v>3.806</v>
       </c>
       <c r="E23" s="4">
         <f t="shared" ca="1" si="1"/>
-        <v>3.742</v>
+        <v>3.8079999999999998</v>
       </c>
       <c r="G23">
         <f t="shared" ca="1" si="2"/>
-        <v>-4.0000000000000001E-3</v>
+        <v>2E-3</v>
       </c>
     </row>
     <row r="24" spans="1:7" ht="18.75">
@@ -9830,19 +9832,19 @@
         <v>3.8660000000000001</v>
       </c>
       <c r="C24" s="6">
-        <v>0.1</v>
+        <v>0.04</v>
       </c>
       <c r="D24" s="6">
         <f t="shared" si="0"/>
-        <v>3.766</v>
+        <v>3.8260000000000001</v>
       </c>
       <c r="E24" s="4">
         <f t="shared" ca="1" si="1"/>
-        <v>3.7690000000000001</v>
+        <v>3.8240000000000003</v>
       </c>
       <c r="G24">
         <f t="shared" ca="1" si="2"/>
-        <v>3.0000000000000001E-3</v>
+        <v>-2E-3</v>
       </c>
     </row>
     <row r="25" spans="1:7" ht="18.75">
@@ -9853,19 +9855,19 @@
         <v>3.86</v>
       </c>
       <c r="C25" s="6">
-        <v>0.1</v>
+        <v>0.04</v>
       </c>
       <c r="D25" s="6">
         <f t="shared" si="0"/>
-        <v>3.76</v>
+        <v>3.82</v>
       </c>
       <c r="E25" s="4">
         <f t="shared" ca="1" si="1"/>
-        <v>3.758</v>
+        <v>3.8169999999999997</v>
       </c>
       <c r="G25">
         <f t="shared" ca="1" si="2"/>
-        <v>-2E-3</v>
+        <v>-3.0000000000000001E-3</v>
       </c>
     </row>
     <row r="26" spans="1:7" ht="18.75">
@@ -9876,19 +9878,19 @@
         <v>3.827</v>
       </c>
       <c r="C26" s="6">
-        <v>0.1</v>
+        <v>0.04</v>
       </c>
       <c r="D26" s="6">
         <f t="shared" si="0"/>
-        <v>3.7269999999999999</v>
+        <v>3.7869999999999999</v>
       </c>
       <c r="E26" s="4">
         <f t="shared" ca="1" si="1"/>
-        <v>3.726</v>
+        <v>3.7889999999999997</v>
       </c>
       <c r="G26">
         <f t="shared" ca="1" si="2"/>
-        <v>-1E-3</v>
+        <v>2E-3</v>
       </c>
     </row>
     <row r="27" spans="1:7" ht="18.75">
@@ -9899,15 +9901,15 @@
         <v>3.7679999999999998</v>
       </c>
       <c r="C27" s="6">
-        <v>0.1</v>
+        <v>0.04</v>
       </c>
       <c r="D27" s="6">
         <f t="shared" si="0"/>
-        <v>3.6679999999999997</v>
+        <v>3.7279999999999998</v>
       </c>
       <c r="E27" s="4">
         <f t="shared" ca="1" si="1"/>
-        <v>3.6719999999999997</v>
+        <v>3.7319999999999998</v>
       </c>
       <c r="G27">
         <f t="shared" ca="1" si="2"/>
@@ -9922,19 +9924,19 @@
         <v>3.698</v>
       </c>
       <c r="C28" s="6">
-        <v>0.1</v>
+        <v>0.04</v>
       </c>
       <c r="D28" s="6">
         <f t="shared" si="0"/>
-        <v>3.5979999999999999</v>
+        <v>3.6579999999999999</v>
       </c>
       <c r="E28" s="4">
         <f t="shared" ca="1" si="1"/>
-        <v>3.5960000000000001</v>
+        <v>3.6589999999999998</v>
       </c>
       <c r="G28">
         <f t="shared" ca="1" si="2"/>
-        <v>-2E-3</v>
+        <v>1E-3</v>
       </c>
     </row>
     <row r="29" spans="1:7" ht="18.75">
@@ -9945,19 +9947,19 @@
         <v>3.6280000000000001</v>
       </c>
       <c r="C29" s="6">
-        <v>0.1</v>
+        <v>0.04</v>
       </c>
       <c r="D29" s="6">
         <f t="shared" si="0"/>
-        <v>3.528</v>
+        <v>3.5880000000000001</v>
       </c>
       <c r="E29" s="4">
         <f t="shared" ca="1" si="1"/>
-        <v>3.5289999999999999</v>
+        <v>3.5920000000000001</v>
       </c>
       <c r="G29">
         <f t="shared" ca="1" si="2"/>
-        <v>1E-3</v>
+        <v>4.0000000000000001E-3</v>
       </c>
     </row>
     <row r="30" spans="1:7" ht="18.75">
@@ -9968,19 +9970,19 @@
         <v>3.569</v>
       </c>
       <c r="C30" s="6">
-        <v>0.1</v>
+        <v>0.04</v>
       </c>
       <c r="D30" s="6">
         <f t="shared" si="0"/>
-        <v>3.4689999999999999</v>
+        <v>3.5289999999999999</v>
       </c>
       <c r="E30" s="4">
         <f t="shared" ca="1" si="1"/>
-        <v>3.4729999999999999</v>
+        <v>3.5309999999999997</v>
       </c>
       <c r="G30">
         <f t="shared" ca="1" si="2"/>
-        <v>4.0000000000000001E-3</v>
+        <v>2E-3</v>
       </c>
     </row>
     <row r="31" spans="1:7" ht="18.75">
@@ -9991,19 +9993,19 @@
         <v>3.5390000000000001</v>
       </c>
       <c r="C31" s="6">
-        <v>0.1</v>
+        <v>0.04</v>
       </c>
       <c r="D31" s="6">
         <f t="shared" si="0"/>
-        <v>3.4390000000000001</v>
+        <v>3.4990000000000001</v>
       </c>
       <c r="E31" s="4">
         <f t="shared" ca="1" si="1"/>
-        <v>3.4430000000000001</v>
+        <v>3.4990000000000001</v>
       </c>
       <c r="G31">
         <f t="shared" ca="1" si="2"/>
-        <v>4.0000000000000001E-3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32" spans="1:7" ht="18.75">
@@ -10014,25 +10016,27 @@
         <v>3.536</v>
       </c>
       <c r="C32" s="6">
-        <v>0.1</v>
+        <v>0.04</v>
       </c>
       <c r="D32" s="6">
         <f t="shared" si="0"/>
-        <v>3.4359999999999999</v>
+        <v>3.496</v>
       </c>
       <c r="E32" s="4">
         <f t="shared" ca="1" si="1"/>
-        <v>3.4369999999999998</v>
+        <v>3.4950000000000001</v>
       </c>
       <c r="G32">
         <f t="shared" ca="1" si="2"/>
-        <v>1E-3</v>
+        <v>-1E-3</v>
       </c>
     </row>
     <row r="33" spans="1:7" ht="18.75">
       <c r="A33" s="5"/>
       <c r="B33" s="7"/>
-      <c r="C33" s="6"/>
+      <c r="C33" s="6">
+        <v>0.04</v>
+      </c>
       <c r="D33" s="6"/>
       <c r="E33" s="4"/>
     </row>
@@ -10044,19 +10048,19 @@
         <v>3.6179999999999999</v>
       </c>
       <c r="C34" s="6">
-        <v>0.1</v>
+        <v>0.04</v>
       </c>
       <c r="D34" s="6">
         <f t="shared" si="0"/>
-        <v>3.5179999999999998</v>
+        <v>3.5779999999999998</v>
       </c>
       <c r="E34" s="4">
         <f t="shared" ca="1" si="1"/>
-        <v>3.5189999999999997</v>
+        <v>3.577</v>
       </c>
       <c r="G34">
         <f t="shared" ca="1" si="2"/>
-        <v>1E-3</v>
+        <v>-1E-3</v>
       </c>
     </row>
     <row r="35" spans="1:7" ht="18.75">
@@ -10067,19 +10071,19 @@
         <v>3.6960000000000002</v>
       </c>
       <c r="C35" s="6">
-        <v>0.1</v>
+        <v>0.04</v>
       </c>
       <c r="D35" s="6">
         <f t="shared" si="0"/>
-        <v>3.5960000000000001</v>
+        <v>3.6560000000000001</v>
       </c>
       <c r="E35" s="4">
         <f t="shared" ca="1" si="1"/>
-        <v>3.5960000000000001</v>
+        <v>3.6579999999999999</v>
       </c>
       <c r="G35">
         <f t="shared" ca="1" si="2"/>
-        <v>0</v>
+        <v>2E-3</v>
       </c>
     </row>
     <row r="36" spans="1:7" ht="18.75">
@@ -10090,19 +10094,19 @@
         <v>3.7759999999999998</v>
       </c>
       <c r="C36" s="6">
-        <v>0.1</v>
+        <v>0.04</v>
       </c>
       <c r="D36" s="6">
         <f t="shared" si="0"/>
-        <v>3.6759999999999997</v>
+        <v>3.7359999999999998</v>
       </c>
       <c r="E36" s="4">
         <f t="shared" ca="1" si="1"/>
-        <v>3.6769999999999996</v>
+        <v>3.7379999999999995</v>
       </c>
       <c r="G36">
         <f t="shared" ca="1" si="2"/>
-        <v>1E-3</v>
+        <v>2E-3</v>
       </c>
     </row>
     <row r="37" spans="1:7" ht="18.75">
@@ -10113,19 +10117,19 @@
         <v>3.8370000000000002</v>
       </c>
       <c r="C37" s="6">
-        <v>0.1</v>
+        <v>0.04</v>
       </c>
       <c r="D37" s="6">
         <f t="shared" si="0"/>
-        <v>3.7370000000000001</v>
+        <v>3.7970000000000002</v>
       </c>
       <c r="E37" s="4">
         <f t="shared" ca="1" si="1"/>
-        <v>3.738</v>
+        <v>3.794</v>
       </c>
       <c r="G37">
         <f t="shared" ca="1" si="2"/>
-        <v>1E-3</v>
+        <v>-3.0000000000000001E-3</v>
       </c>
     </row>
     <row r="38" spans="1:7" ht="18.75">
